--- a/Kode/Server2/Logs/lora_node2/2020-05-24.xlsx
+++ b/Kode/Server2/Logs/lora_node2/2020-05-24.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="17640" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -51,7 +50,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -348,7 +347,7 @@
   </sheetPr>
   <dimension ref="A1:F844"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3243,7 +3242,7 @@
         <v>0.015</v>
       </c>
       <c r="F144" t="n">
-        <v>3.588e-05</v>
+        <v>0.03588</v>
       </c>
     </row>
     <row r="145">
@@ -3263,7 +3262,7 @@
         <v>0.03</v>
       </c>
       <c r="F145" t="n">
-        <v>7.007999999999999e-05</v>
+        <v>0.07007999999999999</v>
       </c>
     </row>
     <row r="146">
@@ -3283,7 +3282,7 @@
         <v>0.045</v>
       </c>
       <c r="F146" t="n">
-        <v>0.00010566</v>
+        <v>0.10566</v>
       </c>
     </row>
     <row r="147">
@@ -3303,7 +3302,7 @@
         <v>0.06</v>
       </c>
       <c r="F147" t="n">
-        <v>0.00013848</v>
+        <v>0.13848</v>
       </c>
     </row>
     <row r="148">
@@ -3323,7 +3322,7 @@
         <v>0.075</v>
       </c>
       <c r="F148" t="n">
-        <v>0.0001749</v>
+        <v>0.1749</v>
       </c>
     </row>
     <row r="149">
@@ -3343,7 +3342,7 @@
         <v>0.105</v>
       </c>
       <c r="F149" t="n">
-        <v>0.00023646</v>
+        <v>0.23646</v>
       </c>
     </row>
     <row r="150">
@@ -3363,7 +3362,7 @@
         <v>0.12</v>
       </c>
       <c r="F150" t="n">
-        <v>0.00026496</v>
+        <v>0.26496</v>
       </c>
     </row>
     <row r="151">
@@ -3383,7 +3382,7 @@
         <v>0.12</v>
       </c>
       <c r="F151" t="n">
-        <v>0.00026784</v>
+        <v>0.26784</v>
       </c>
     </row>
     <row r="152">
@@ -3403,7 +3402,7 @@
         <v>0.165</v>
       </c>
       <c r="F152" t="n">
-        <v>0.0003814799999999999</v>
+        <v>0.3814799999999999</v>
       </c>
     </row>
     <row r="153">
@@ -3423,7 +3422,7 @@
         <v>0.18</v>
       </c>
       <c r="F153" t="n">
-        <v>0.00039672</v>
+        <v>0.39672</v>
       </c>
     </row>
     <row r="154">
@@ -3443,7 +3442,7 @@
         <v>0.195</v>
       </c>
       <c r="F154" t="n">
-        <v>0.0004383600000000001</v>
+        <v>0.4383600000000001</v>
       </c>
     </row>
     <row r="155">
@@ -3463,7 +3462,7 @@
         <v>0.21</v>
       </c>
       <c r="F155" t="n">
-        <v>0.0004704</v>
+        <v>0.4704</v>
       </c>
     </row>
     <row r="156">
@@ -3483,7 +3482,7 @@
         <v>0.24</v>
       </c>
       <c r="F156" t="n">
-        <v>0.00052608</v>
+        <v>0.52608</v>
       </c>
     </row>
     <row r="157">
@@ -3503,7 +3502,7 @@
         <v>0.255</v>
       </c>
       <c r="F157" t="n">
-        <v>0.00057324</v>
+        <v>0.5732400000000001</v>
       </c>
     </row>
     <row r="158">
@@ -3523,7 +3522,7 @@
         <v>0.255</v>
       </c>
       <c r="F158" t="n">
-        <v>0.00057324</v>
+        <v>0.5732400000000001</v>
       </c>
     </row>
     <row r="159">
@@ -3543,7 +3542,7 @@
         <v>0.315</v>
       </c>
       <c r="F159" t="n">
-        <v>0.0006942600000000001</v>
+        <v>0.6942600000000001</v>
       </c>
     </row>
     <row r="160">
@@ -3563,7 +3562,7 @@
         <v>0.345</v>
       </c>
       <c r="F160" t="n">
-        <v>0.0007769399999999999</v>
+        <v>0.77694</v>
       </c>
     </row>
     <row r="161">
@@ -3583,7 +3582,7 @@
         <v>0.375</v>
       </c>
       <c r="F161" t="n">
-        <v>0.0008385000000000001</v>
+        <v>0.8385</v>
       </c>
     </row>
     <row r="162">
@@ -3603,7 +3602,7 @@
         <v>0.405</v>
       </c>
       <c r="F162" t="n">
-        <v>0.0008893800000000001</v>
+        <v>0.8893800000000001</v>
       </c>
     </row>
     <row r="163">
@@ -3623,7 +3622,7 @@
         <v>0.42</v>
       </c>
       <c r="F163" t="n">
-        <v>0.00092568</v>
+        <v>0.9256800000000001</v>
       </c>
     </row>
     <row r="164">
@@ -3643,7 +3642,7 @@
         <v>0.45</v>
       </c>
       <c r="F164" t="n">
-        <v>0.000972</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="165">
@@ -3663,7 +3662,7 @@
         <v>0.465</v>
       </c>
       <c r="F165" t="n">
-        <v>0.00104346</v>
+        <v>1.04346</v>
       </c>
     </row>
     <row r="166">
@@ -3683,7 +3682,7 @@
         <v>0.495</v>
       </c>
       <c r="F166" t="n">
-        <v>0.0010989</v>
+        <v>1.0989</v>
       </c>
     </row>
     <row r="167">
@@ -3703,7 +3702,7 @@
         <v>0.645</v>
       </c>
       <c r="F167" t="n">
-        <v>0.0014319</v>
+        <v>1.4319</v>
       </c>
     </row>
     <row r="168">
@@ -3723,7 +3722,7 @@
         <v>0.6749999999999999</v>
       </c>
       <c r="F168" t="n">
-        <v>0.0014364</v>
+        <v>1.4364</v>
       </c>
     </row>
     <row r="169">
@@ -3743,7 +3742,7 @@
         <v>0.705</v>
       </c>
       <c r="F169" t="n">
-        <v>0.00157356</v>
+        <v>1.57356</v>
       </c>
     </row>
     <row r="170">
@@ -3763,7 +3762,7 @@
         <v>0.735</v>
       </c>
       <c r="F170" t="n">
-        <v>0.00156114</v>
+        <v>1.56114</v>
       </c>
     </row>
     <row r="171">
@@ -3783,7 +3782,7 @@
         <v>0.765</v>
       </c>
       <c r="F171" t="n">
-        <v>0.00167382</v>
+        <v>1.67382</v>
       </c>
     </row>
     <row r="172">
@@ -3803,7 +3802,7 @@
         <v>0.7949999999999999</v>
       </c>
       <c r="F172" t="n">
-        <v>0.00174582</v>
+        <v>1.74582</v>
       </c>
     </row>
     <row r="173">
@@ -3823,7 +3822,7 @@
         <v>0.84</v>
       </c>
       <c r="F173" t="n">
-        <v>0.0018312</v>
+        <v>1.8312</v>
       </c>
     </row>
     <row r="174">
@@ -3843,7 +3842,7 @@
         <v>0.87</v>
       </c>
       <c r="F174" t="n">
-        <v>0.00190704</v>
+        <v>1.90704</v>
       </c>
     </row>
     <row r="175">
@@ -3863,7 +3862,7 @@
         <v>0.885</v>
       </c>
       <c r="F175" t="n">
-        <v>0.00195762</v>
+        <v>1.95762</v>
       </c>
     </row>
     <row r="176">
@@ -3883,7 +3882,7 @@
         <v>0.9299999999999999</v>
       </c>
       <c r="F176" t="n">
-        <v>0.00200136</v>
+        <v>2.00136</v>
       </c>
     </row>
     <row r="177">
@@ -3903,7 +3902,7 @@
         <v>0.975</v>
       </c>
       <c r="F177" t="n">
-        <v>0.0021489</v>
+        <v>2.1489</v>
       </c>
     </row>
     <row r="178">
@@ -3923,7 +3922,7 @@
         <v>1.02</v>
       </c>
       <c r="F178" t="n">
-        <v>0.00221136</v>
+        <v>2.21136</v>
       </c>
     </row>
     <row r="179">
@@ -3943,7 +3942,7 @@
         <v>1.05</v>
       </c>
       <c r="F179" t="n">
-        <v>0.0022764</v>
+        <v>2.2764</v>
       </c>
     </row>
     <row r="180">
@@ -3963,7 +3962,7 @@
         <v>1.11</v>
       </c>
       <c r="F180" t="n">
-        <v>0.0023754</v>
+        <v>2.3754</v>
       </c>
     </row>
     <row r="181">
@@ -3983,7 +3982,7 @@
         <v>1.185</v>
       </c>
       <c r="F181" t="n">
-        <v>0.00252642</v>
+        <v>2.52642</v>
       </c>
     </row>
     <row r="182">
@@ -4003,7 +4002,7 @@
         <v>1.29</v>
       </c>
       <c r="F182" t="n">
-        <v>0.00262128</v>
+        <v>2.62128</v>
       </c>
     </row>
     <row r="183">
@@ -4023,7 +4022,7 @@
         <v>1.335</v>
       </c>
       <c r="F183" t="n">
-        <v>0.00258456</v>
+        <v>2.58456</v>
       </c>
     </row>
     <row r="184">
@@ -4043,7 +4042,7 @@
         <v>1.395</v>
       </c>
       <c r="F184" t="n">
-        <v>0.00252774</v>
+        <v>2.52774</v>
       </c>
     </row>
     <row r="185">
@@ -4063,7 +4062,7 @@
         <v>1.44</v>
       </c>
       <c r="F185" t="n">
-        <v>0.00263232</v>
+        <v>2.63232</v>
       </c>
     </row>
     <row r="186">
@@ -4083,7 +4082,7 @@
         <v>1.5</v>
       </c>
       <c r="F186" t="n">
-        <v>0.00276</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="187">
@@ -4103,7 +4102,7 @@
         <v>1.62</v>
       </c>
       <c r="F187" t="n">
-        <v>0.00305856</v>
+        <v>3.05856</v>
       </c>
     </row>
     <row r="188">
@@ -4123,7 +4122,7 @@
         <v>1.635</v>
       </c>
       <c r="F188" t="n">
-        <v>0.0031065</v>
+        <v>3.1065</v>
       </c>
     </row>
     <row r="189">
@@ -4143,7 +4142,7 @@
         <v>1.665</v>
       </c>
       <c r="F189" t="n">
-        <v>0.00318348</v>
+        <v>3.18348</v>
       </c>
     </row>
     <row r="190">
@@ -4163,7 +4162,7 @@
         <v>1.74</v>
       </c>
       <c r="F190" t="n">
-        <v>0.00336864</v>
+        <v>3.36864</v>
       </c>
     </row>
     <row r="191">
@@ -4183,7 +4182,7 @@
         <v>1.8</v>
       </c>
       <c r="F191" t="n">
-        <v>0.0035064</v>
+        <v>3.5064</v>
       </c>
     </row>
     <row r="192">
@@ -4203,7 +4202,7 @@
         <v>1.875</v>
       </c>
       <c r="F192" t="n">
-        <v>0.00372</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="193">
@@ -4223,7 +4222,7 @@
         <v>1.995</v>
       </c>
       <c r="F193" t="n">
-        <v>0.00403788</v>
+        <v>4.037879999999999</v>
       </c>
     </row>
     <row r="194">
@@ -4243,7 +4242,7 @@
         <v>2.07</v>
       </c>
       <c r="F194" t="n">
-        <v>0.00425592</v>
+        <v>4.25592</v>
       </c>
     </row>
     <row r="195">
@@ -4263,7 +4262,7 @@
         <v>2.145</v>
       </c>
       <c r="F195" t="n">
-        <v>0.0044616</v>
+        <v>4.4616</v>
       </c>
     </row>
     <row r="196">
@@ -4283,7 +4282,7 @@
         <v>2.19</v>
       </c>
       <c r="F196" t="n">
-        <v>0.004572720000000001</v>
+        <v>4.57272</v>
       </c>
     </row>
     <row r="197">
@@ -4303,7 +4302,7 @@
         <v>2.295</v>
       </c>
       <c r="F197" t="n">
-        <v>0.0048195</v>
+        <v>4.8195</v>
       </c>
     </row>
     <row r="198">
@@ -4323,7 +4322,7 @@
         <v>2.34</v>
       </c>
       <c r="F198" t="n">
-        <v>0.00493272</v>
+        <v>4.93272</v>
       </c>
     </row>
     <row r="199">
@@ -4343,7 +4342,7 @@
         <v>2.7</v>
       </c>
       <c r="F199" t="n">
-        <v>0.005832</v>
+        <v>5.832000000000001</v>
       </c>
     </row>
     <row r="200">
@@ -4363,7 +4362,7 @@
         <v>2.85</v>
       </c>
       <c r="F200" t="n">
-        <v>0.006190200000000001</v>
+        <v>6.190200000000001</v>
       </c>
     </row>
     <row r="201">
@@ -4383,7 +4382,7 @@
         <v>2.97</v>
       </c>
       <c r="F201" t="n">
-        <v>0.00639144</v>
+        <v>6.39144</v>
       </c>
     </row>
     <row r="202">
@@ -4403,7 +4402,7 @@
         <v>3</v>
       </c>
       <c r="F202" t="n">
-        <v>0.006540000000000001</v>
+        <v>6.540000000000001</v>
       </c>
     </row>
     <row r="203">
@@ -4423,7 +4422,7 @@
         <v>3.12</v>
       </c>
       <c r="F203" t="n">
-        <v>0.006801600000000001</v>
+        <v>6.801600000000001</v>
       </c>
     </row>
     <row r="204">
@@ -4443,7 +4442,7 @@
         <v>3.165</v>
       </c>
       <c r="F204" t="n">
-        <v>0.006950340000000001</v>
+        <v>6.950340000000001</v>
       </c>
     </row>
     <row r="205">
@@ -4463,7 +4462,7 @@
         <v>3.345</v>
       </c>
       <c r="F205" t="n">
-        <v>0.007345620000000001</v>
+        <v>7.34562</v>
       </c>
     </row>
     <row r="206">
@@ -4483,7 +4482,7 @@
         <v>3.39</v>
       </c>
       <c r="F206" t="n">
-        <v>0.00736308</v>
+        <v>7.36308</v>
       </c>
     </row>
     <row r="207">
@@ -4503,7 +4502,7 @@
         <v>3.54</v>
       </c>
       <c r="F207" t="n">
-        <v>0.007759680000000001</v>
+        <v>7.75968</v>
       </c>
     </row>
     <row r="208">
@@ -4523,7 +4522,7 @@
         <v>3.57</v>
       </c>
       <c r="F208" t="n">
-        <v>0.00789684</v>
+        <v>7.89684</v>
       </c>
     </row>
     <row r="209">
@@ -4543,7 +4542,7 @@
         <v>3.63</v>
       </c>
       <c r="F209" t="n">
-        <v>0.00802956</v>
+        <v>8.02956</v>
       </c>
     </row>
     <row r="210">
@@ -4563,7 +4562,7 @@
         <v>3.675</v>
       </c>
       <c r="F210" t="n">
-        <v>0.008070299999999999</v>
+        <v>8.0703</v>
       </c>
     </row>
     <row r="211">
@@ -4583,7 +4582,7 @@
         <v>3.72</v>
       </c>
       <c r="F211" t="n">
-        <v>0.008273279999999999</v>
+        <v>8.27328</v>
       </c>
     </row>
     <row r="212">
@@ -4603,7 +4602,7 @@
         <v>3.765</v>
       </c>
       <c r="F212" t="n">
-        <v>0.00831312</v>
+        <v>8.31312</v>
       </c>
     </row>
     <row r="213">
@@ -4623,7 +4622,7 @@
         <v>3.81</v>
       </c>
       <c r="F213" t="n">
-        <v>0.008305800000000002</v>
+        <v>8.305800000000001</v>
       </c>
     </row>
     <row r="214">
@@ -4643,7 +4642,7 @@
         <v>3.855</v>
       </c>
       <c r="F214" t="n">
-        <v>0.00854268</v>
+        <v>8.542680000000001</v>
       </c>
     </row>
     <row r="215">
@@ -4663,7 +4662,7 @@
         <v>3.9</v>
       </c>
       <c r="F215" t="n">
-        <v>0.0084396</v>
+        <v>8.4396</v>
       </c>
     </row>
     <row r="216">
@@ -4683,7 +4682,7 @@
         <v>3.96</v>
       </c>
       <c r="F216" t="n">
-        <v>0.008632800000000001</v>
+        <v>8.632800000000001</v>
       </c>
     </row>
     <row r="217">
@@ -4703,7 +4702,7 @@
         <v>4.035</v>
       </c>
       <c r="F217" t="n">
-        <v>0.00884472</v>
+        <v>8.844720000000001</v>
       </c>
     </row>
     <row r="218">
@@ -4723,7 +4722,7 @@
         <v>4.065</v>
       </c>
       <c r="F218" t="n">
-        <v>0.009105599999999998</v>
+        <v>9.105599999999999</v>
       </c>
     </row>
     <row r="219">
@@ -4743,7 +4742,7 @@
         <v>4.23</v>
       </c>
       <c r="F219" t="n">
-        <v>0.009390599999999999</v>
+        <v>9.390599999999999</v>
       </c>
     </row>
     <row r="220">
@@ -4763,7 +4762,7 @@
         <v>4.245</v>
       </c>
       <c r="F220" t="n">
-        <v>0.00932202</v>
+        <v>9.32202</v>
       </c>
     </row>
     <row r="221">
@@ -4783,7 +4782,7 @@
         <v>4.35</v>
       </c>
       <c r="F221" t="n">
-        <v>0.0096918</v>
+        <v>9.691800000000001</v>
       </c>
     </row>
     <row r="222">
@@ -4803,7 +4802,7 @@
         <v>4.41</v>
       </c>
       <c r="F222" t="n">
-        <v>0.009790200000000001</v>
+        <v>9.7902</v>
       </c>
     </row>
     <row r="223">
@@ -4823,7 +4822,7 @@
         <v>4.815</v>
       </c>
       <c r="F223" t="n">
-        <v>0.01076634</v>
+        <v>10.76634</v>
       </c>
     </row>
     <row r="224">
@@ -4843,7 +4842,7 @@
         <v>4.83</v>
       </c>
       <c r="F224" t="n">
-        <v>0.01068396</v>
+        <v>10.68396</v>
       </c>
     </row>
     <row r="225">
@@ -4863,7 +4862,7 @@
         <v>4.875</v>
       </c>
       <c r="F225" t="n">
-        <v>0.0105495</v>
+        <v>10.5495</v>
       </c>
     </row>
     <row r="226">
@@ -4883,7 +4882,7 @@
         <v>4.995</v>
       </c>
       <c r="F226" t="n">
-        <v>0.01090908</v>
+        <v>10.90908</v>
       </c>
     </row>
     <row r="227">
@@ -4903,7 +4902,7 @@
         <v>5.01</v>
       </c>
       <c r="F227" t="n">
-        <v>0.01106208</v>
+        <v>11.06208</v>
       </c>
     </row>
     <row r="228">
@@ -4923,7 +4922,7 @@
         <v>4.965</v>
       </c>
       <c r="F228" t="n">
-        <v>0.01098258</v>
+        <v>10.98258</v>
       </c>
     </row>
     <row r="229">
@@ -4943,7 +4942,7 @@
         <v>5.01</v>
       </c>
       <c r="F229" t="n">
-        <v>0.01100196</v>
+        <v>11.00196</v>
       </c>
     </row>
     <row r="230">
@@ -4963,7 +4962,7 @@
         <v>5.085</v>
       </c>
       <c r="F230" t="n">
-        <v>0.01122768</v>
+        <v>11.22768</v>
       </c>
     </row>
     <row r="231">
@@ -4983,7 +4982,7 @@
         <v>5.1</v>
       </c>
       <c r="F231" t="n">
-        <v>0.01122</v>
+        <v>11.22</v>
       </c>
     </row>
     <row r="232">
@@ -5003,7 +5002,7 @@
         <v>5.175</v>
       </c>
       <c r="F232" t="n">
-        <v>0.0117162</v>
+        <v>11.7162</v>
       </c>
     </row>
     <row r="233">
@@ -5023,7 +5022,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F233" t="n">
-        <v>0.0117216</v>
+        <v>11.7216</v>
       </c>
     </row>
     <row r="234">
@@ -5043,7 +5042,7 @@
         <v>5.355</v>
       </c>
       <c r="F234" t="n">
-        <v>0.01180242</v>
+        <v>11.80242</v>
       </c>
     </row>
     <row r="235">
@@ -5063,7 +5062,7 @@
         <v>5.385</v>
       </c>
       <c r="F235" t="n">
-        <v>0.01186854</v>
+        <v>11.86854</v>
       </c>
     </row>
     <row r="236">
@@ -5083,7 +5082,7 @@
         <v>5.475</v>
       </c>
       <c r="F236" t="n">
-        <v>0.0121545</v>
+        <v>12.1545</v>
       </c>
     </row>
     <row r="237">
@@ -5103,7 +5102,7 @@
         <v>5.565</v>
       </c>
       <c r="F237" t="n">
-        <v>0.01228752</v>
+        <v>12.28752</v>
       </c>
     </row>
     <row r="238">
@@ -5123,7 +5122,7 @@
         <v>5.58</v>
       </c>
       <c r="F238" t="n">
-        <v>0.01236528</v>
+        <v>12.36528</v>
       </c>
     </row>
     <row r="239">
@@ -5143,7 +5142,7 @@
         <v>5.67</v>
       </c>
       <c r="F239" t="n">
-        <v>0.01256472</v>
+        <v>12.56472</v>
       </c>
     </row>
     <row r="240">
@@ -5163,7 +5162,7 @@
         <v>5.685</v>
       </c>
       <c r="F240" t="n">
-        <v>0.01246152</v>
+        <v>12.46152</v>
       </c>
     </row>
     <row r="241">
@@ -5183,7 +5182,7 @@
         <v>5.7</v>
       </c>
       <c r="F241" t="n">
-        <v>0.0124944</v>
+        <v>12.4944</v>
       </c>
     </row>
     <row r="242">
@@ -5203,7 +5202,7 @@
         <v>5.774999999999999</v>
       </c>
       <c r="F242" t="n">
-        <v>0.0127281</v>
+        <v>12.7281</v>
       </c>
     </row>
     <row r="243">
@@ -5223,7 +5222,7 @@
         <v>5.774999999999999</v>
       </c>
       <c r="F243" t="n">
-        <v>0.0127743</v>
+        <v>12.7743</v>
       </c>
     </row>
     <row r="244">
@@ -5243,7 +5242,7 @@
         <v>5.835</v>
       </c>
       <c r="F244" t="n">
-        <v>0.0129537</v>
+        <v>12.9537</v>
       </c>
     </row>
     <row r="245">
@@ -5263,7 +5262,7 @@
         <v>5.955</v>
       </c>
       <c r="F245" t="n">
-        <v>0.01305336</v>
+        <v>13.05336</v>
       </c>
     </row>
     <row r="246">
@@ -5283,7 +5282,7 @@
         <v>6</v>
       </c>
       <c r="F246" t="n">
-        <v>0.013128</v>
+        <v>13.128</v>
       </c>
     </row>
     <row r="247">
@@ -5303,7 +5302,7 @@
         <v>6.045</v>
       </c>
       <c r="F247" t="n">
-        <v>0.01325064</v>
+        <v>13.25064</v>
       </c>
     </row>
     <row r="248">
@@ -5323,7 +5322,7 @@
         <v>6.18</v>
       </c>
       <c r="F248" t="n">
-        <v>0.01362072</v>
+        <v>13.62072</v>
       </c>
     </row>
     <row r="249">
@@ -5343,7 +5342,7 @@
         <v>6.255</v>
       </c>
       <c r="F249" t="n">
-        <v>0.0136359</v>
+        <v>13.6359</v>
       </c>
     </row>
     <row r="250">
@@ -5363,7 +5362,7 @@
         <v>6.285</v>
       </c>
       <c r="F250" t="n">
-        <v>0.01367616</v>
+        <v>13.67616</v>
       </c>
     </row>
     <row r="251">
@@ -5383,7 +5382,7 @@
         <v>6.39</v>
       </c>
       <c r="F251" t="n">
-        <v>0.01398132</v>
+        <v>13.98132</v>
       </c>
     </row>
     <row r="252">
@@ -5403,7 +5402,7 @@
         <v>6.585</v>
       </c>
       <c r="F252" t="n">
-        <v>0.01414458</v>
+        <v>14.14458</v>
       </c>
     </row>
     <row r="253">
@@ -5423,7 +5422,7 @@
         <v>6.675</v>
       </c>
       <c r="F253" t="n">
-        <v>0.0146049</v>
+        <v>14.6049</v>
       </c>
     </row>
     <row r="254">
@@ -5443,7 +5442,7 @@
         <v>6.734999999999999</v>
       </c>
       <c r="F254" t="n">
-        <v>0.01479006</v>
+        <v>14.79006</v>
       </c>
     </row>
     <row r="255">
@@ -5463,7 +5462,7 @@
         <v>6.87</v>
       </c>
       <c r="F255" t="n">
-        <v>0.01486668</v>
+        <v>14.86668</v>
       </c>
     </row>
     <row r="256">
@@ -5483,7 +5482,7 @@
         <v>6.899999999999999</v>
       </c>
       <c r="F256" t="n">
-        <v>0.0150972</v>
+        <v>15.0972</v>
       </c>
     </row>
     <row r="257">
@@ -5503,7 +5502,7 @@
         <v>7.005</v>
       </c>
       <c r="F257" t="n">
-        <v>0.01521486</v>
+        <v>15.21486</v>
       </c>
     </row>
     <row r="258">
@@ -5523,7 +5522,7 @@
         <v>7.05</v>
       </c>
       <c r="F258" t="n">
-        <v>0.0154818</v>
+        <v>15.4818</v>
       </c>
     </row>
     <row r="259">
@@ -5543,7 +5542,7 @@
         <v>7.109999999999999</v>
       </c>
       <c r="F259" t="n">
-        <v>0.01538604</v>
+        <v>15.38604</v>
       </c>
     </row>
     <row r="260">
@@ -5563,7 +5562,7 @@
         <v>7.199999999999999</v>
       </c>
       <c r="F260" t="n">
-        <v>0.0155808</v>
+        <v>15.5808</v>
       </c>
     </row>
     <row r="261">
@@ -5583,7 +5582,7 @@
         <v>7.274999999999999</v>
       </c>
       <c r="F261" t="n">
-        <v>0.0158304</v>
+        <v>15.8304</v>
       </c>
     </row>
     <row r="262">
@@ -5603,7 +5602,7 @@
         <v>7.364999999999999</v>
       </c>
       <c r="F262" t="n">
-        <v>0.01599678</v>
+        <v>15.99678</v>
       </c>
     </row>
     <row r="263">
@@ -5623,7 +5622,7 @@
         <v>7.44</v>
       </c>
       <c r="F263" t="n">
-        <v>0.0162192</v>
+        <v>16.2192</v>
       </c>
     </row>
     <row r="264">
@@ -5643,7 +5642,7 @@
         <v>7.68</v>
       </c>
       <c r="F264" t="n">
-        <v>0.01640448</v>
+        <v>16.40448</v>
       </c>
     </row>
     <row r="265">
@@ -5663,7 +5662,7 @@
         <v>7.8</v>
       </c>
       <c r="F265" t="n">
-        <v>0.0165672</v>
+        <v>16.5672</v>
       </c>
     </row>
     <row r="266">
@@ -5683,7 +5682,7 @@
         <v>7.845</v>
       </c>
       <c r="F266" t="n">
-        <v>0.0166314</v>
+        <v>16.6314</v>
       </c>
     </row>
     <row r="267">
@@ -5703,7 +5702,7 @@
         <v>7.875</v>
       </c>
       <c r="F267" t="n">
-        <v>0.016632</v>
+        <v>16.632</v>
       </c>
     </row>
     <row r="268">
@@ -5723,7 +5722,7 @@
         <v>7.98</v>
       </c>
       <c r="F268" t="n">
-        <v>0.01685376</v>
+        <v>16.85376</v>
       </c>
     </row>
     <row r="269">
@@ -5743,7 +5742,7 @@
         <v>8.145</v>
       </c>
       <c r="F269" t="n">
-        <v>0.01720224</v>
+        <v>17.20224</v>
       </c>
     </row>
     <row r="270">
@@ -5763,7 +5762,7 @@
         <v>8.234999999999999</v>
       </c>
       <c r="F270" t="n">
-        <v>0.01739232</v>
+        <v>17.39232</v>
       </c>
     </row>
     <row r="271">
@@ -5783,7 +5782,7 @@
         <v>8.31</v>
       </c>
       <c r="F271" t="n">
-        <v>0.01755072</v>
+        <v>17.55072</v>
       </c>
     </row>
     <row r="272">
@@ -5803,7 +5802,7 @@
         <v>8.385</v>
       </c>
       <c r="F272" t="n">
-        <v>0.01770912</v>
+        <v>17.70912</v>
       </c>
     </row>
     <row r="273">
@@ -5823,7 +5822,7 @@
         <v>8.459999999999999</v>
       </c>
       <c r="F273" t="n">
-        <v>0.01786752</v>
+        <v>17.86752</v>
       </c>
     </row>
     <row r="274">
@@ -5843,7 +5842,7 @@
         <v>8.58</v>
       </c>
       <c r="F274" t="n">
-        <v>0.01815528</v>
+        <v>18.15528</v>
       </c>
     </row>
     <row r="275">
@@ -5863,7 +5862,7 @@
         <v>8.744999999999999</v>
       </c>
       <c r="F275" t="n">
-        <v>0.0185394</v>
+        <v>18.5394</v>
       </c>
     </row>
     <row r="276">
@@ -5883,7 +5882,7 @@
         <v>8.834999999999999</v>
       </c>
       <c r="F276" t="n">
-        <v>0.0187302</v>
+        <v>18.7302</v>
       </c>
     </row>
     <row r="277">
@@ -5903,7 +5902,7 @@
         <v>8.91</v>
       </c>
       <c r="F277" t="n">
-        <v>0.01892484</v>
+        <v>18.92484</v>
       </c>
     </row>
     <row r="278">
@@ -5923,7 +5922,7 @@
         <v>8.984999999999999</v>
       </c>
       <c r="F278" t="n">
-        <v>0.01908414</v>
+        <v>19.08414</v>
       </c>
     </row>
     <row r="279">
@@ -5943,7 +5942,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="F279" t="n">
-        <v>0.01917972</v>
+        <v>19.17972</v>
       </c>
     </row>
     <row r="280">
@@ -5963,7 +5962,7 @@
         <v>9.09</v>
       </c>
       <c r="F280" t="n">
-        <v>0.01930716</v>
+        <v>19.30716</v>
       </c>
     </row>
     <row r="281">
@@ -5983,7 +5982,7 @@
         <v>9.164999999999999</v>
       </c>
       <c r="F281" t="n">
-        <v>0.01946646</v>
+        <v>19.46646</v>
       </c>
     </row>
     <row r="282">
@@ -6003,7 +6002,7 @@
         <v>9.195</v>
       </c>
       <c r="F282" t="n">
-        <v>0.01953018</v>
+        <v>19.53018</v>
       </c>
     </row>
     <row r="283">
@@ -6023,7 +6022,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="F283" t="n">
-        <v>0.01991808</v>
+        <v>19.91808</v>
       </c>
     </row>
     <row r="284">
@@ -6043,7 +6042,7 @@
         <v>9.48</v>
       </c>
       <c r="F284" t="n">
-        <v>0.02017344</v>
+        <v>20.17344</v>
       </c>
     </row>
     <row r="285">
@@ -6063,7 +6062,7 @@
         <v>9.555</v>
       </c>
       <c r="F285" t="n">
-        <v>0.02033304</v>
+        <v>20.33304</v>
       </c>
     </row>
     <row r="286">
@@ -6083,7 +6082,7 @@
         <v>9.734999999999999</v>
       </c>
       <c r="F286" t="n">
-        <v>0.02075502</v>
+        <v>20.75502</v>
       </c>
     </row>
     <row r="287">
@@ -6103,7 +6102,7 @@
         <v>10.185</v>
       </c>
       <c r="F287" t="n">
-        <v>0.0217959</v>
+        <v>21.7959</v>
       </c>
     </row>
     <row r="288">
@@ -6123,7 +6122,7 @@
         <v>10.605</v>
       </c>
       <c r="F288" t="n">
-        <v>0.02307648</v>
+        <v>23.07648</v>
       </c>
     </row>
     <row r="289">
@@ -6143,7 +6142,7 @@
         <v>10.71</v>
       </c>
       <c r="F289" t="n">
-        <v>0.0233478</v>
+        <v>23.3478</v>
       </c>
     </row>
     <row r="290">
@@ -6163,7 +6162,7 @@
         <v>10.89</v>
       </c>
       <c r="F290" t="n">
-        <v>0.0237402</v>
+        <v>23.7402</v>
       </c>
     </row>
     <row r="291">
@@ -6183,7 +6182,7 @@
         <v>10.98</v>
       </c>
       <c r="F291" t="n">
-        <v>0.02398032</v>
+        <v>23.98032</v>
       </c>
     </row>
     <row r="292">
@@ -6203,7 +6202,7 @@
         <v>11.085</v>
       </c>
       <c r="F292" t="n">
-        <v>0.0241653</v>
+        <v>24.1653</v>
       </c>
     </row>
     <row r="293">
@@ -6223,7 +6222,7 @@
         <v>11.115</v>
       </c>
       <c r="F293" t="n">
-        <v>0.02427516</v>
+        <v>24.27516</v>
       </c>
     </row>
     <row r="294">
@@ -6243,7 +6242,7 @@
         <v>11.175</v>
       </c>
       <c r="F294" t="n">
-        <v>0.0244509</v>
+        <v>24.4509</v>
       </c>
     </row>
     <row r="295">
@@ -6263,7 +6262,7 @@
         <v>11.265</v>
       </c>
       <c r="F295" t="n">
-        <v>0.02464782</v>
+        <v>24.64782</v>
       </c>
     </row>
     <row r="296">
@@ -6283,7 +6282,7 @@
         <v>11.28</v>
       </c>
       <c r="F296" t="n">
-        <v>0.02468064</v>
+        <v>24.68064</v>
       </c>
     </row>
     <row r="297">
@@ -6303,7 +6302,7 @@
         <v>11.325</v>
       </c>
       <c r="F297" t="n">
-        <v>0.0247338</v>
+        <v>24.7338</v>
       </c>
     </row>
     <row r="298">
@@ -6323,7 +6322,7 @@
         <v>11.355</v>
       </c>
       <c r="F298" t="n">
-        <v>0.02484474</v>
+        <v>24.84474</v>
       </c>
     </row>
     <row r="299">
@@ -6343,7 +6342,7 @@
         <v>11.37</v>
       </c>
       <c r="F299" t="n">
-        <v>0.02487756</v>
+        <v>24.87756</v>
       </c>
     </row>
     <row r="300">
@@ -6363,7 +6362,7 @@
         <v>11.37</v>
       </c>
       <c r="F300" t="n">
-        <v>0.02487756</v>
+        <v>24.87756</v>
       </c>
     </row>
     <row r="301">
@@ -6383,7 +6382,7 @@
         <v>11.355</v>
       </c>
       <c r="F301" t="n">
-        <v>0.02479932</v>
+        <v>24.79932</v>
       </c>
     </row>
     <row r="302">
@@ -6403,7 +6402,7 @@
         <v>11.4</v>
       </c>
       <c r="F302" t="n">
-        <v>0.0249432</v>
+        <v>24.9432</v>
       </c>
     </row>
     <row r="303">
@@ -6423,7 +6422,7 @@
         <v>11.475</v>
       </c>
       <c r="F303" t="n">
-        <v>0.0251073</v>
+        <v>25.1073</v>
       </c>
     </row>
     <row r="304">
@@ -6443,7 +6442,7 @@
         <v>11.49</v>
       </c>
       <c r="F304" t="n">
-        <v>0.02514012</v>
+        <v>25.14012</v>
       </c>
     </row>
     <row r="305">
@@ -6463,7 +6462,7 @@
         <v>11.505</v>
       </c>
       <c r="F305" t="n">
-        <v>0.02517294</v>
+        <v>25.17294</v>
       </c>
     </row>
     <row r="306">
@@ -6483,7 +6482,7 @@
         <v>11.55</v>
       </c>
       <c r="F306" t="n">
-        <v>0.0252714</v>
+        <v>25.2714</v>
       </c>
     </row>
     <row r="307">
@@ -6503,7 +6502,7 @@
         <v>11.595</v>
       </c>
       <c r="F307" t="n">
-        <v>0.02536986</v>
+        <v>25.36986</v>
       </c>
     </row>
     <row r="308">
@@ -6523,7 +6522,7 @@
         <v>11.595</v>
       </c>
       <c r="F308" t="n">
-        <v>0.02536986</v>
+        <v>25.36986</v>
       </c>
     </row>
     <row r="309">
@@ -6543,7 +6542,7 @@
         <v>11.595</v>
       </c>
       <c r="F309" t="n">
-        <v>0.02536986</v>
+        <v>25.36986</v>
       </c>
     </row>
     <row r="310">
@@ -6563,7 +6562,7 @@
         <v>11.595</v>
       </c>
       <c r="F310" t="n">
-        <v>0.02536986</v>
+        <v>25.36986</v>
       </c>
     </row>
     <row r="311">
@@ -6583,7 +6582,7 @@
         <v>11.595</v>
       </c>
       <c r="F311" t="n">
-        <v>0.02541624</v>
+        <v>25.41624</v>
       </c>
     </row>
     <row r="312">
@@ -6603,7 +6602,7 @@
         <v>11.58</v>
       </c>
       <c r="F312" t="n">
-        <v>0.02538336</v>
+        <v>25.38336</v>
       </c>
     </row>
     <row r="313">
@@ -6623,7 +6622,7 @@
         <v>11.595</v>
       </c>
       <c r="F313" t="n">
-        <v>0.02536986</v>
+        <v>25.36986</v>
       </c>
     </row>
     <row r="314">
@@ -6643,7 +6642,7 @@
         <v>11.595</v>
       </c>
       <c r="F314" t="n">
-        <v>0.02536986</v>
+        <v>25.36986</v>
       </c>
     </row>
     <row r="315">
@@ -6663,7 +6662,7 @@
         <v>11.595</v>
       </c>
       <c r="F315" t="n">
-        <v>0.02536986</v>
+        <v>25.36986</v>
       </c>
     </row>
     <row r="316">
@@ -6683,7 +6682,7 @@
         <v>11.595</v>
       </c>
       <c r="F316" t="n">
-        <v>0.02536986</v>
+        <v>25.36986</v>
       </c>
     </row>
     <row r="317">
@@ -6703,7 +6702,7 @@
         <v>11.58</v>
       </c>
       <c r="F317" t="n">
-        <v>0.02538336</v>
+        <v>25.38336</v>
       </c>
     </row>
     <row r="318">
@@ -6723,7 +6722,7 @@
         <v>11.58</v>
       </c>
       <c r="F318" t="n">
-        <v>0.02538336</v>
+        <v>25.38336</v>
       </c>
     </row>
     <row r="319">
@@ -6743,7 +6742,7 @@
         <v>11.565</v>
       </c>
       <c r="F319" t="n">
-        <v>0.02525796</v>
+        <v>25.25796</v>
       </c>
     </row>
     <row r="320">
@@ -6763,7 +6762,7 @@
         <v>11.55</v>
       </c>
       <c r="F320" t="n">
-        <v>0.0252714</v>
+        <v>25.2714</v>
       </c>
     </row>
     <row r="321">
@@ -6783,7 +6782,7 @@
         <v>11.52</v>
       </c>
       <c r="F321" t="n">
-        <v>0.02520576</v>
+        <v>25.20576</v>
       </c>
     </row>
     <row r="322">
@@ -6803,7 +6802,7 @@
         <v>11.49</v>
       </c>
       <c r="F322" t="n">
-        <v>0.02514012</v>
+        <v>25.14012</v>
       </c>
     </row>
     <row r="323">
@@ -6823,7 +6822,7 @@
         <v>11.445</v>
       </c>
       <c r="F323" t="n">
-        <v>0.02504166</v>
+        <v>25.04166</v>
       </c>
     </row>
     <row r="324">
@@ -6843,7 +6842,7 @@
         <v>11.4</v>
       </c>
       <c r="F324" t="n">
-        <v>0.02489760000000001</v>
+        <v>24.89760000000001</v>
       </c>
     </row>
     <row r="325">
@@ -6863,7 +6862,7 @@
         <v>11.325</v>
       </c>
       <c r="F325" t="n">
-        <v>0.0247791</v>
+        <v>24.7791</v>
       </c>
     </row>
     <row r="326">
@@ -6883,7 +6882,7 @@
         <v>11.295</v>
       </c>
       <c r="F326" t="n">
-        <v>0.02466828</v>
+        <v>24.66828</v>
       </c>
     </row>
     <row r="327">
@@ -6903,7 +6902,7 @@
         <v>11.265</v>
       </c>
       <c r="F327" t="n">
-        <v>0.02460276</v>
+        <v>24.60276</v>
       </c>
     </row>
     <row r="328">
@@ -6923,7 +6922,7 @@
         <v>11.19</v>
       </c>
       <c r="F328" t="n">
-        <v>0.02443896</v>
+        <v>24.43896</v>
       </c>
     </row>
     <row r="329">
@@ -6943,7 +6942,7 @@
         <v>11.16</v>
       </c>
       <c r="F329" t="n">
-        <v>0.02437344</v>
+        <v>24.37344</v>
       </c>
     </row>
     <row r="330">
@@ -6963,7 +6962,7 @@
         <v>11.145</v>
       </c>
       <c r="F330" t="n">
-        <v>0.02434068</v>
+        <v>24.34068</v>
       </c>
     </row>
     <row r="331">
@@ -6983,7 +6982,7 @@
         <v>10.95</v>
       </c>
       <c r="F331" t="n">
-        <v>0.0234768</v>
+        <v>23.4768</v>
       </c>
     </row>
     <row r="332">
@@ -7003,7 +7002,7 @@
         <v>11.175</v>
       </c>
       <c r="F332" t="n">
-        <v>0.0244062</v>
+        <v>24.4062</v>
       </c>
     </row>
     <row r="333">
@@ -7023,7 +7022,7 @@
         <v>11.175</v>
       </c>
       <c r="F333" t="n">
-        <v>0.0243615</v>
+        <v>24.3615</v>
       </c>
     </row>
     <row r="334">
@@ -7043,7 +7042,7 @@
         <v>11.16</v>
       </c>
       <c r="F334" t="n">
-        <v>0.02437344</v>
+        <v>24.37344</v>
       </c>
     </row>
     <row r="335">
@@ -7063,7 +7062,7 @@
         <v>11.13</v>
       </c>
       <c r="F335" t="n">
-        <v>0.0242634</v>
+        <v>24.2634</v>
       </c>
     </row>
     <row r="336">
@@ -7083,7 +7082,7 @@
         <v>10.95</v>
       </c>
       <c r="F336" t="n">
-        <v>0.023871</v>
+        <v>23.871</v>
       </c>
     </row>
     <row r="337">
@@ -7103,7 +7102,7 @@
         <v>10.755</v>
       </c>
       <c r="F337" t="n">
-        <v>0.0234459</v>
+        <v>23.4459</v>
       </c>
     </row>
     <row r="338">
@@ -7123,7 +7122,7 @@
         <v>10.695</v>
       </c>
       <c r="F338" t="n">
-        <v>0.02327232</v>
+        <v>23.27232</v>
       </c>
     </row>
     <row r="339">
@@ -7143,7 +7142,7 @@
         <v>10.62</v>
       </c>
       <c r="F339" t="n">
-        <v>0.02310912</v>
+        <v>23.10912</v>
       </c>
     </row>
     <row r="340">
@@ -7163,7 +7162,7 @@
         <v>10.56</v>
       </c>
       <c r="F340" t="n">
-        <v>0.0230208</v>
+        <v>23.0208</v>
       </c>
     </row>
     <row r="341">
@@ -7183,7 +7182,7 @@
         <v>10.515</v>
       </c>
       <c r="F341" t="n">
-        <v>0.02283858</v>
+        <v>22.83858</v>
       </c>
     </row>
     <row r="342">
@@ -7203,7 +7202,7 @@
         <v>10.44</v>
       </c>
       <c r="F342" t="n">
-        <v>0.02267568</v>
+        <v>22.67568</v>
       </c>
     </row>
     <row r="343">
@@ -7223,7 +7222,7 @@
         <v>10.35</v>
       </c>
       <c r="F343" t="n">
-        <v>0.0224802</v>
+        <v>22.4802</v>
       </c>
     </row>
     <row r="344">
@@ -7243,7 +7242,7 @@
         <v>10.29</v>
       </c>
       <c r="F344" t="n">
-        <v>0.02239104</v>
+        <v>22.39104</v>
       </c>
     </row>
     <row r="345">
@@ -7263,7 +7262,7 @@
         <v>10.245</v>
       </c>
       <c r="F345" t="n">
-        <v>0.02225214</v>
+        <v>22.25214</v>
       </c>
     </row>
     <row r="346">
@@ -7283,7 +7282,7 @@
         <v>10.185</v>
       </c>
       <c r="F346" t="n">
-        <v>0.02212182</v>
+        <v>22.12182</v>
       </c>
     </row>
     <row r="347">
@@ -7303,7 +7302,7 @@
         <v>10.125</v>
       </c>
       <c r="F347" t="n">
-        <v>0.0219915</v>
+        <v>21.9915</v>
       </c>
     </row>
     <row r="348">
@@ -7323,7 +7322,7 @@
         <v>10.065</v>
       </c>
       <c r="F348" t="n">
-        <v>0.02182092</v>
+        <v>21.82092</v>
       </c>
     </row>
     <row r="349">
@@ -7343,7 +7342,7 @@
         <v>10.035</v>
       </c>
       <c r="F349" t="n">
-        <v>0.02175588</v>
+        <v>21.75588</v>
       </c>
     </row>
     <row r="350">
@@ -7363,7 +7362,7 @@
         <v>10.005</v>
       </c>
       <c r="F350" t="n">
-        <v>0.02169084</v>
+        <v>21.69084</v>
       </c>
     </row>
     <row r="351">
@@ -7383,7 +7382,7 @@
         <v>9.959999999999999</v>
       </c>
       <c r="F351" t="n">
-        <v>0.02159328</v>
+        <v>21.59328</v>
       </c>
     </row>
     <row r="352">
@@ -7403,7 +7402,7 @@
         <v>9.945</v>
       </c>
       <c r="F352" t="n">
-        <v>0.02156076</v>
+        <v>21.56076</v>
       </c>
     </row>
     <row r="353">
@@ -7423,7 +7422,7 @@
         <v>9.93</v>
       </c>
       <c r="F353" t="n">
-        <v>0.02152824</v>
+        <v>21.52824</v>
       </c>
     </row>
     <row r="354">
@@ -7443,7 +7442,7 @@
         <v>9.914999999999999</v>
       </c>
       <c r="F354" t="n">
-        <v>0.02145606</v>
+        <v>21.45606</v>
       </c>
     </row>
     <row r="355">
@@ -7463,7 +7462,7 @@
         <v>9.84</v>
       </c>
       <c r="F355" t="n">
-        <v>0.02129376</v>
+        <v>21.29376</v>
       </c>
     </row>
     <row r="356">
@@ -7483,7 +7482,7 @@
         <v>9.824999999999999</v>
       </c>
       <c r="F356" t="n">
-        <v>0.0213006</v>
+        <v>21.3006</v>
       </c>
     </row>
     <row r="357">
@@ -7503,7 +7502,7 @@
         <v>9.84</v>
       </c>
       <c r="F357" t="n">
-        <v>0.0212544</v>
+        <v>21.2544</v>
       </c>
     </row>
     <row r="358">
@@ -7523,7 +7522,7 @@
         <v>9.855</v>
       </c>
       <c r="F358" t="n">
-        <v>0.02136564</v>
+        <v>21.36564</v>
       </c>
     </row>
     <row r="359">
@@ -7543,7 +7542,7 @@
         <v>9.9</v>
       </c>
       <c r="F359" t="n">
-        <v>0.0214632</v>
+        <v>21.4632</v>
       </c>
     </row>
     <row r="360">
@@ -7563,7 +7562,7 @@
         <v>9.914999999999999</v>
       </c>
       <c r="F360" t="n">
-        <v>0.02149572</v>
+        <v>21.49572</v>
       </c>
     </row>
     <row r="361">
@@ -7583,7 +7582,7 @@
         <v>9.914999999999999</v>
       </c>
       <c r="F361" t="n">
-        <v>0.02149572</v>
+        <v>21.49572</v>
       </c>
     </row>
     <row r="362">
@@ -7603,7 +7602,7 @@
         <v>9.93</v>
       </c>
       <c r="F362" t="n">
-        <v>0.02148852</v>
+        <v>21.48852</v>
       </c>
     </row>
     <row r="363">
@@ -7623,7 +7622,7 @@
         <v>9.945</v>
       </c>
       <c r="F363" t="n">
-        <v>0.02156076</v>
+        <v>21.56076</v>
       </c>
     </row>
     <row r="364">
@@ -7643,7 +7642,7 @@
         <v>9.99</v>
       </c>
       <c r="F364" t="n">
-        <v>0.02161836</v>
+        <v>21.61836</v>
       </c>
     </row>
     <row r="365">
@@ -7663,7 +7662,7 @@
         <v>10.035</v>
       </c>
       <c r="F365" t="n">
-        <v>0.02175588</v>
+        <v>21.75588</v>
       </c>
     </row>
     <row r="366">
@@ -7683,7 +7682,7 @@
         <v>10.035</v>
       </c>
       <c r="F366" t="n">
-        <v>0.02171574</v>
+        <v>21.71574</v>
       </c>
     </row>
     <row r="367">
@@ -7703,7 +7702,7 @@
         <v>10.02</v>
       </c>
       <c r="F367" t="n">
-        <v>0.02172336</v>
+        <v>21.72336</v>
       </c>
     </row>
     <row r="368">
@@ -7723,7 +7722,7 @@
         <v>10.02</v>
       </c>
       <c r="F368" t="n">
-        <v>0.02172336</v>
+        <v>21.72336</v>
       </c>
     </row>
     <row r="369">
@@ -7743,7 +7742,7 @@
         <v>10.065</v>
       </c>
       <c r="F369" t="n">
-        <v>0.02186118</v>
+        <v>21.86118</v>
       </c>
     </row>
     <row r="370">
@@ -7763,7 +7762,7 @@
         <v>10.14</v>
       </c>
       <c r="F370" t="n">
-        <v>0.02194296</v>
+        <v>21.94296</v>
       </c>
     </row>
     <row r="371">
@@ -7783,7 +7782,7 @@
         <v>10.2</v>
       </c>
       <c r="F371" t="n">
-        <v>0.0221136</v>
+        <v>22.1136</v>
       </c>
     </row>
     <row r="372">
@@ -7803,7 +7802,7 @@
         <v>10.23</v>
       </c>
       <c r="F372" t="n">
-        <v>0.02221956</v>
+        <v>22.21956</v>
       </c>
     </row>
     <row r="373">
@@ -7823,7 +7822,7 @@
         <v>10.23</v>
       </c>
       <c r="F373" t="n">
-        <v>0.02221956</v>
+        <v>22.21956</v>
       </c>
     </row>
     <row r="374">
@@ -7843,7 +7842,7 @@
         <v>10.29</v>
       </c>
       <c r="F374" t="n">
-        <v>0.02230872</v>
+        <v>22.30872</v>
       </c>
     </row>
     <row r="375">
@@ -7863,7 +7862,7 @@
         <v>10.365</v>
       </c>
       <c r="F375" t="n">
-        <v>0.02251278</v>
+        <v>22.51278</v>
       </c>
     </row>
     <row r="376">
@@ -7883,7 +7882,7 @@
         <v>10.455</v>
       </c>
       <c r="F376" t="n">
-        <v>0.02275008</v>
+        <v>22.75008</v>
       </c>
     </row>
     <row r="377">
@@ -7903,7 +7902,7 @@
         <v>10.83</v>
       </c>
       <c r="F377" t="n">
-        <v>0.02356608</v>
+        <v>23.56608</v>
       </c>
     </row>
     <row r="378">
@@ -7923,7 +7922,7 @@
         <v>10.92</v>
       </c>
       <c r="F378" t="n">
-        <v>0.0238056</v>
+        <v>23.8056</v>
       </c>
     </row>
     <row r="379">
@@ -7943,7 +7942,7 @@
         <v>11.235</v>
       </c>
       <c r="F379" t="n">
-        <v>0.02453724</v>
+        <v>24.53724</v>
       </c>
     </row>
     <row r="380">
@@ -7963,7 +7962,7 @@
         <v>11.595</v>
       </c>
       <c r="F380" t="n">
-        <v>0.02532348</v>
+        <v>25.32348</v>
       </c>
     </row>
     <row r="381">
@@ -7983,7 +7982,7 @@
         <v>12.135</v>
       </c>
       <c r="F381" t="n">
-        <v>0.02659992</v>
+        <v>26.59992</v>
       </c>
     </row>
     <row r="382">
@@ -8003,7 +8002,7 @@
         <v>12.72</v>
       </c>
       <c r="F382" t="n">
-        <v>0.02752608</v>
+        <v>27.52608</v>
       </c>
     </row>
     <row r="383">
@@ -8023,7 +8022,7 @@
         <v>14.19</v>
       </c>
       <c r="F383" t="n">
-        <v>0.03082068</v>
+        <v>30.82068</v>
       </c>
     </row>
     <row r="384">
@@ -8043,7 +8042,7 @@
         <v>15.69</v>
       </c>
       <c r="F384" t="n">
-        <v>0.03401592</v>
+        <v>34.01592</v>
       </c>
     </row>
     <row r="385">
@@ -8063,7 +8062,7 @@
         <v>18.585</v>
       </c>
       <c r="F385" t="n">
-        <v>0.03992058</v>
+        <v>39.92057999999999</v>
       </c>
     </row>
     <row r="386">
@@ -8083,7 +8082,7 @@
         <v>18.42</v>
       </c>
       <c r="F386" t="n">
-        <v>0.0401556</v>
+        <v>40.1556</v>
       </c>
     </row>
     <row r="387">
@@ -8103,7 +8102,7 @@
         <v>18.24</v>
       </c>
       <c r="F387" t="n">
-        <v>0.0397632</v>
+        <v>39.7632</v>
       </c>
     </row>
     <row r="388">
@@ -8123,7 +8122,7 @@
         <v>18</v>
       </c>
       <c r="F388" t="n">
-        <v>0.038448</v>
+        <v>38.448</v>
       </c>
     </row>
     <row r="389">
@@ -8143,7 +8142,7 @@
         <v>17.79</v>
       </c>
       <c r="F389" t="n">
-        <v>0.03871104</v>
+        <v>38.71104</v>
       </c>
     </row>
     <row r="390">
@@ -8163,7 +8162,7 @@
         <v>17.295</v>
       </c>
       <c r="F390" t="n">
-        <v>0.0373572</v>
+        <v>37.3572</v>
       </c>
     </row>
     <row r="391">
@@ -8183,7 +8182,7 @@
         <v>16.89</v>
       </c>
       <c r="F391" t="n">
-        <v>0.03607704</v>
+        <v>36.07704</v>
       </c>
     </row>
     <row r="392">
@@ -8203,7 +8202,7 @@
         <v>21.555</v>
       </c>
       <c r="F392" t="n">
-        <v>0.04647258</v>
+        <v>46.47258</v>
       </c>
     </row>
     <row r="393">
@@ -8223,7 +8222,7 @@
         <v>23.28</v>
       </c>
       <c r="F393" t="n">
-        <v>0.05102975999999999</v>
+        <v>51.02976</v>
       </c>
     </row>
     <row r="394">
@@ -8243,7 +8242,7 @@
         <v>25.35</v>
       </c>
       <c r="F394" t="n">
-        <v>0.0546546</v>
+        <v>54.65459999999999</v>
       </c>
     </row>
     <row r="395">
@@ -8263,7 +8262,7 @@
         <v>23.115</v>
       </c>
       <c r="F395" t="n">
-        <v>0.0503907</v>
+        <v>50.3907</v>
       </c>
     </row>
     <row r="396">
@@ -8283,7 +8282,7 @@
         <v>22.11</v>
       </c>
       <c r="F396" t="n">
-        <v>0.0477576</v>
+        <v>47.7576</v>
       </c>
     </row>
     <row r="397">
@@ -8303,7 +8302,7 @@
         <v>24.285</v>
       </c>
       <c r="F397" t="n">
-        <v>0.05245560000000001</v>
+        <v>52.45560000000001</v>
       </c>
     </row>
     <row r="398">
@@ -8323,7 +8322,7 @@
         <v>25.74</v>
       </c>
       <c r="F398" t="n">
-        <v>0.05601024</v>
+        <v>56.01024</v>
       </c>
     </row>
     <row r="399">
@@ -8343,7 +8342,7 @@
         <v>26.61</v>
       </c>
       <c r="F399" t="n">
-        <v>0.05800980000000001</v>
+        <v>58.00980000000001</v>
       </c>
     </row>
     <row r="400">
@@ -8363,7 +8362,7 @@
         <v>26.445</v>
       </c>
       <c r="F400" t="n">
-        <v>0.0571212</v>
+        <v>57.12119999999999</v>
       </c>
     </row>
     <row r="401">
@@ -8383,7 +8382,7 @@
         <v>27.21</v>
       </c>
       <c r="F401" t="n">
-        <v>0.0587736</v>
+        <v>58.7736</v>
       </c>
     </row>
     <row r="402">
@@ -8403,7 +8402,7 @@
         <v>27.285</v>
       </c>
       <c r="F402" t="n">
-        <v>0.05926302000000001</v>
+        <v>59.26302000000001</v>
       </c>
     </row>
     <row r="403">
@@ -8423,7 +8422,7 @@
         <v>33.705</v>
       </c>
       <c r="F403" t="n">
-        <v>0.07307244</v>
+        <v>73.07244</v>
       </c>
     </row>
     <row r="404">
@@ -8443,7 +8442,7 @@
         <v>35.61</v>
       </c>
       <c r="F404" t="n">
-        <v>0.07748736000000001</v>
+        <v>77.48736000000001</v>
       </c>
     </row>
     <row r="405">
@@ -8463,7 +8462,7 @@
         <v>36.105</v>
       </c>
       <c r="F405" t="n">
-        <v>0.07856448000000001</v>
+        <v>78.56448</v>
       </c>
     </row>
     <row r="406">
@@ -8483,7 +8482,7 @@
         <v>38.925</v>
       </c>
       <c r="F406" t="n">
-        <v>0.08470080000000001</v>
+        <v>84.7008</v>
       </c>
     </row>
     <row r="407">
@@ -8503,7 +8502,7 @@
         <v>42.33</v>
       </c>
       <c r="F407" t="n">
-        <v>0.09211008</v>
+        <v>92.11008</v>
       </c>
     </row>
     <row r="408">
@@ -8523,7 +8522,7 @@
         <v>43.08</v>
       </c>
       <c r="F408" t="n">
-        <v>0.09408672</v>
+        <v>94.08672</v>
       </c>
     </row>
     <row r="409">
@@ -8543,7 +8542,7 @@
         <v>43.575</v>
       </c>
       <c r="F409" t="n">
-        <v>0.09481919999999999</v>
+        <v>94.8192</v>
       </c>
     </row>
     <row r="410">
@@ -8563,7 +8562,7 @@
         <v>43.71</v>
       </c>
       <c r="F410" t="n">
-        <v>0.09511296000000001</v>
+        <v>95.11296000000002</v>
       </c>
     </row>
     <row r="411">
@@ -8583,7 +8582,7 @@
         <v>41.79</v>
       </c>
       <c r="F411" t="n">
-        <v>0.09076788000000001</v>
+        <v>90.76788000000001</v>
       </c>
     </row>
     <row r="412">
@@ -8603,7 +8602,7 @@
         <v>47.505</v>
       </c>
       <c r="F412" t="n">
-        <v>0.10432098</v>
+        <v>104.32098</v>
       </c>
     </row>
     <row r="413">
@@ -8623,7 +8622,7 @@
         <v>55.95</v>
       </c>
       <c r="F413" t="n">
-        <v>0.1221948</v>
+        <v>122.1948</v>
       </c>
     </row>
     <row r="414">
@@ -8643,7 +8642,7 @@
         <v>60.18</v>
       </c>
       <c r="F414" t="n">
-        <v>0.13167384</v>
+        <v>131.67384</v>
       </c>
     </row>
     <row r="415">
@@ -8663,7 +8662,7 @@
         <v>61.53</v>
       </c>
       <c r="F415" t="n">
-        <v>0.13462764</v>
+        <v>134.62764</v>
       </c>
     </row>
     <row r="416">
@@ -8683,7 +8682,7 @@
         <v>61.05</v>
       </c>
       <c r="F416" t="n">
-        <v>0.1333332</v>
+        <v>133.3332</v>
       </c>
     </row>
     <row r="417">
@@ -8703,7 +8702,7 @@
         <v>59.745</v>
       </c>
       <c r="F417" t="n">
-        <v>0.1302441</v>
+        <v>130.2441</v>
       </c>
     </row>
     <row r="418">
@@ -8723,7 +8722,7 @@
         <v>57.915</v>
       </c>
       <c r="F418" t="n">
-        <v>0.12694968</v>
+        <v>126.94968</v>
       </c>
     </row>
     <row r="419">
@@ -8743,7 +8742,7 @@
         <v>58.935</v>
       </c>
       <c r="F419" t="n">
-        <v>0.1284783</v>
+        <v>128.4783</v>
       </c>
     </row>
     <row r="420">
@@ -8763,7 +8762,7 @@
         <v>58.47</v>
       </c>
       <c r="F420" t="n">
-        <v>0.128634</v>
+        <v>128.634</v>
       </c>
     </row>
     <row r="421">
@@ -8783,7 +8782,7 @@
         <v>58.065</v>
       </c>
       <c r="F421" t="n">
-        <v>0.12727848</v>
+        <v>127.27848</v>
       </c>
     </row>
     <row r="422">
@@ -8803,7 +8802,7 @@
         <v>59.955</v>
       </c>
       <c r="F422" t="n">
-        <v>0.1307019</v>
+        <v>130.7019</v>
       </c>
     </row>
     <row r="423">
@@ -8823,7 +8822,7 @@
         <v>59.73</v>
       </c>
       <c r="F423" t="n">
-        <v>0.13116708</v>
+        <v>131.16708</v>
       </c>
     </row>
     <row r="424">
@@ -8843,7 +8842,7 @@
         <v>60.675</v>
       </c>
       <c r="F424" t="n">
-        <v>0.1329996</v>
+        <v>132.9996</v>
       </c>
     </row>
     <row r="425">
@@ -8863,7 +8862,7 @@
         <v>61.44</v>
       </c>
       <c r="F425" t="n">
-        <v>0.13467648</v>
+        <v>134.67648</v>
       </c>
     </row>
     <row r="426">
@@ -8883,7 +8882,7 @@
         <v>59.55</v>
       </c>
       <c r="F426" t="n">
-        <v>0.129819</v>
+        <v>129.819</v>
       </c>
     </row>
     <row r="427">
@@ -8903,7 +8902,7 @@
         <v>60.585</v>
       </c>
       <c r="F427" t="n">
-        <v>0.13255998</v>
+        <v>132.55998</v>
       </c>
     </row>
     <row r="428">
@@ -8923,7 +8922,7 @@
         <v>62.985</v>
       </c>
       <c r="F428" t="n">
-        <v>0.13781118</v>
+        <v>137.81118</v>
       </c>
     </row>
     <row r="429">
@@ -8943,7 +8942,7 @@
         <v>64.815</v>
       </c>
       <c r="F429" t="n">
-        <v>0.14233374</v>
+        <v>142.33374</v>
       </c>
     </row>
     <row r="430">
@@ -8963,7 +8962,7 @@
         <v>71.205</v>
       </c>
       <c r="F430" t="n">
-        <v>0.15693582</v>
+        <v>156.93582</v>
       </c>
     </row>
     <row r="431">
@@ -8983,7 +8982,7 @@
         <v>71.625</v>
       </c>
       <c r="F431" t="n">
-        <v>0.1572885</v>
+        <v>157.2885</v>
       </c>
     </row>
     <row r="432">
@@ -9003,7 +9002,7 @@
         <v>71.02499999999999</v>
       </c>
       <c r="F432" t="n">
-        <v>0.1559709</v>
+        <v>155.9709</v>
       </c>
     </row>
     <row r="433">
@@ -9023,7 +9022,7 @@
         <v>69.23999999999999</v>
       </c>
       <c r="F433" t="n">
-        <v>0.15177408</v>
+        <v>151.77408</v>
       </c>
     </row>
     <row r="434">
@@ -9043,7 +9042,7 @@
         <v>70.27499999999999</v>
       </c>
       <c r="F434" t="n">
-        <v>0.1543239</v>
+        <v>154.3239</v>
       </c>
     </row>
     <row r="435">
@@ -9063,7 +9062,7 @@
         <v>68.06999999999999</v>
       </c>
       <c r="F435" t="n">
-        <v>0.15002628</v>
+        <v>150.02628</v>
       </c>
     </row>
     <row r="436">
@@ -9083,7 +9082,7 @@
         <v>60.885</v>
       </c>
       <c r="F436" t="n">
-        <v>0.1327293</v>
+        <v>132.7293</v>
       </c>
     </row>
     <row r="437">
@@ -9103,7 +9102,7 @@
         <v>61.605</v>
       </c>
       <c r="F437" t="n">
-        <v>0.1342989</v>
+        <v>134.2989</v>
       </c>
     </row>
     <row r="438">
@@ -9123,7 +9122,7 @@
         <v>68.41499999999999</v>
       </c>
       <c r="F438" t="n">
-        <v>0.150513</v>
+        <v>150.513</v>
       </c>
     </row>
     <row r="439">
@@ -9143,7 +9142,7 @@
         <v>76.515</v>
       </c>
       <c r="F439" t="n">
-        <v>0.16863906</v>
+        <v>168.63906</v>
       </c>
     </row>
     <row r="440">
@@ -9163,7 +9162,7 @@
         <v>80.09999999999999</v>
       </c>
       <c r="F440" t="n">
-        <v>0.1765404</v>
+        <v>176.5404</v>
       </c>
     </row>
     <row r="441">
@@ -9183,7 +9182,7 @@
         <v>81.27</v>
       </c>
       <c r="F441" t="n">
-        <v>0.17911908</v>
+        <v>179.11908</v>
       </c>
     </row>
     <row r="442">
@@ -9203,7 +9202,7 @@
         <v>76.815</v>
       </c>
       <c r="F442" t="n">
-        <v>0.168993</v>
+        <v>168.993</v>
       </c>
     </row>
     <row r="443">
@@ -9223,7 +9222,7 @@
         <v>76.02</v>
       </c>
       <c r="F443" t="n">
-        <v>0.167244</v>
+        <v>167.244</v>
       </c>
     </row>
     <row r="444">
@@ -9243,7 +9242,7 @@
         <v>81.315</v>
       </c>
       <c r="F444" t="n">
-        <v>0.17921826</v>
+        <v>179.21826</v>
       </c>
     </row>
     <row r="445">
@@ -9263,7 +9262,7 @@
         <v>85.8</v>
       </c>
       <c r="F445" t="n">
-        <v>0.1894464</v>
+        <v>189.4464</v>
       </c>
     </row>
     <row r="446">
@@ -9283,7 +9282,7 @@
         <v>94.455</v>
       </c>
       <c r="F446" t="n">
-        <v>0.2096901</v>
+        <v>209.6901</v>
       </c>
     </row>
     <row r="447">
@@ -9303,7 +9302,7 @@
         <v>43.455</v>
       </c>
       <c r="F447" t="n">
-        <v>0.09473190000000001</v>
+        <v>94.73190000000001</v>
       </c>
     </row>
     <row r="448">
@@ -9323,7 +9322,7 @@
         <v>28.74</v>
       </c>
       <c r="F448" t="n">
-        <v>0.06219336</v>
+        <v>62.19336000000001</v>
       </c>
     </row>
     <row r="449">
@@ -9343,7 +9342,7 @@
         <v>66.20999999999999</v>
       </c>
       <c r="F449" t="n">
-        <v>0.14539716</v>
+        <v>145.39716</v>
       </c>
     </row>
     <row r="450">
@@ -9363,7 +9362,7 @@
         <v>104.76</v>
       </c>
       <c r="F450" t="n">
-        <v>0.23298624</v>
+        <v>232.98624</v>
       </c>
     </row>
     <row r="451">
@@ -9383,7 +9382,7 @@
         <v>104.385</v>
       </c>
       <c r="F451" t="n">
-        <v>0.23215224</v>
+        <v>232.15224</v>
       </c>
     </row>
     <row r="452">
@@ -9403,7 +9402,7 @@
         <v>80.83499999999999</v>
       </c>
       <c r="F452" t="n">
-        <v>0.17913036</v>
+        <v>179.13036</v>
       </c>
     </row>
     <row r="453">
@@ -9423,7 +9422,7 @@
         <v>71.265</v>
       </c>
       <c r="F453" t="n">
-        <v>0.15649794</v>
+        <v>156.49794</v>
       </c>
     </row>
     <row r="454">
@@ -9443,7 +9442,7 @@
         <v>86.91</v>
       </c>
       <c r="F454" t="n">
-        <v>0.19189728</v>
+        <v>191.89728</v>
       </c>
     </row>
     <row r="455">
@@ -9463,7 +9462,7 @@
         <v>58.635</v>
       </c>
       <c r="F455" t="n">
-        <v>0.12805884</v>
+        <v>128.05884</v>
       </c>
     </row>
     <row r="456">
@@ -9483,7 +9482,7 @@
         <v>81.72</v>
       </c>
       <c r="F456" t="n">
-        <v>0.18076464</v>
+        <v>180.76464</v>
       </c>
     </row>
     <row r="457">
@@ -9503,7 +9502,7 @@
         <v>79.66499999999999</v>
       </c>
       <c r="F457" t="n">
-        <v>0.17558166</v>
+        <v>175.58166</v>
       </c>
     </row>
     <row r="458">
@@ -9523,7 +9522,7 @@
         <v>79.575</v>
       </c>
       <c r="F458" t="n">
-        <v>0.175065</v>
+        <v>175.065</v>
       </c>
     </row>
     <row r="459">
@@ -9543,7 +9542,7 @@
         <v>62.055</v>
       </c>
       <c r="F459" t="n">
-        <v>0.13602456</v>
+        <v>136.02456</v>
       </c>
     </row>
     <row r="460">
@@ -9563,7 +9562,7 @@
         <v>75.735</v>
       </c>
       <c r="F460" t="n">
-        <v>0.166617</v>
+        <v>166.617</v>
       </c>
     </row>
     <row r="461">
@@ -9583,7 +9582,7 @@
         <v>73.005</v>
       </c>
       <c r="F461" t="n">
-        <v>0.160611</v>
+        <v>160.611</v>
       </c>
     </row>
     <row r="462">
@@ -9603,7 +9602,7 @@
         <v>68.895</v>
       </c>
       <c r="F462" t="n">
-        <v>0.15074226</v>
+        <v>150.74226</v>
       </c>
     </row>
     <row r="463">
@@ -9623,7 +9622,7 @@
         <v>66.765</v>
       </c>
       <c r="F463" t="n">
-        <v>0.14715006</v>
+        <v>147.15006</v>
       </c>
     </row>
     <row r="464">
@@ -9643,7 +9642,7 @@
         <v>66.795</v>
       </c>
       <c r="F464" t="n">
-        <v>0.146949</v>
+        <v>146.949</v>
       </c>
     </row>
     <row r="465">
@@ -9663,7 +9662,7 @@
         <v>67.215</v>
       </c>
       <c r="F465" t="n">
-        <v>0.14760414</v>
+        <v>147.60414</v>
       </c>
     </row>
     <row r="466">
@@ -9683,7 +9682,7 @@
         <v>66.405</v>
       </c>
       <c r="F466" t="n">
-        <v>0.14555976</v>
+        <v>145.55976</v>
       </c>
     </row>
     <row r="467">
@@ -9703,7 +9702,7 @@
         <v>64.36499999999999</v>
       </c>
       <c r="F467" t="n">
-        <v>0.14108808</v>
+        <v>141.08808</v>
       </c>
     </row>
     <row r="468">
@@ -9723,7 +9722,7 @@
         <v>63.285</v>
       </c>
       <c r="F468" t="n">
-        <v>0.13872072</v>
+        <v>138.72072</v>
       </c>
     </row>
     <row r="469">
@@ -9743,7 +9742,7 @@
         <v>25.575</v>
       </c>
       <c r="F469" t="n">
-        <v>0.0559581</v>
+        <v>55.95809999999999</v>
       </c>
     </row>
     <row r="470">
@@ -9763,7 +9762,7 @@
         <v>23.565</v>
       </c>
       <c r="F470" t="n">
-        <v>0.05146596</v>
+        <v>51.46596</v>
       </c>
     </row>
     <row r="471">
@@ -9783,7 +9782,7 @@
         <v>24.975</v>
       </c>
       <c r="F471" t="n">
-        <v>0.053946</v>
+        <v>53.946</v>
       </c>
     </row>
     <row r="472">
@@ -9803,7 +9802,7 @@
         <v>64.77</v>
       </c>
       <c r="F472" t="n">
-        <v>0.14275308</v>
+        <v>142.75308</v>
       </c>
     </row>
     <row r="473">
@@ -9823,7 +9822,7 @@
         <v>59.805</v>
       </c>
       <c r="F473" t="n">
-        <v>0.13061412</v>
+        <v>130.61412</v>
       </c>
     </row>
     <row r="474">
@@ -9843,7 +9842,7 @@
         <v>51.375</v>
       </c>
       <c r="F474" t="n">
-        <v>0.1119975</v>
+        <v>111.9975</v>
       </c>
     </row>
     <row r="475">
@@ -9863,7 +9862,7 @@
         <v>57.72</v>
       </c>
       <c r="F475" t="n">
-        <v>0.12629136</v>
+        <v>126.29136</v>
       </c>
     </row>
     <row r="476">
@@ -9883,7 +9882,7 @@
         <v>46.305</v>
       </c>
       <c r="F476" t="n">
-        <v>0.10113012</v>
+        <v>101.13012</v>
       </c>
     </row>
     <row r="477">
@@ -9903,7 +9902,7 @@
         <v>61.16999999999999</v>
       </c>
       <c r="F477" t="n">
-        <v>0.13408464</v>
+        <v>134.08464</v>
       </c>
     </row>
     <row r="478">
@@ -9923,7 +9922,7 @@
         <v>66.61499999999999</v>
       </c>
       <c r="F478" t="n">
-        <v>0.14575362</v>
+        <v>145.75362</v>
       </c>
     </row>
     <row r="479">
@@ -9943,7 +9942,7 @@
         <v>65.42999999999999</v>
       </c>
       <c r="F479" t="n">
-        <v>0.14342256</v>
+        <v>143.42256</v>
       </c>
     </row>
     <row r="480">
@@ -9963,7 +9962,7 @@
         <v>76.905</v>
       </c>
       <c r="F480" t="n">
-        <v>0.169191</v>
+        <v>169.191</v>
       </c>
     </row>
     <row r="481">
@@ -9983,7 +9982,7 @@
         <v>97.66499999999999</v>
       </c>
       <c r="F481" t="n">
-        <v>0.2168163</v>
+        <v>216.8163</v>
       </c>
     </row>
     <row r="482">
@@ -10003,7 +10002,7 @@
         <v>269.715</v>
       </c>
       <c r="F482" t="n">
-        <v>0.66242004</v>
+        <v>662.42004</v>
       </c>
     </row>
     <row r="483">
@@ -10023,7 +10022,7 @@
         <v>270.585</v>
       </c>
       <c r="F483" t="n">
-        <v>0.6623920799999999</v>
+        <v>662.39208</v>
       </c>
     </row>
     <row r="484">
@@ -10043,7 +10042,7 @@
         <v>272.22</v>
       </c>
       <c r="F484" t="n">
-        <v>0.6685723199999999</v>
+        <v>668.5723199999999</v>
       </c>
     </row>
     <row r="485">
@@ -10063,7 +10062,7 @@
         <v>274.965</v>
       </c>
       <c r="F485" t="n">
-        <v>0.6797134799999999</v>
+        <v>679.7134799999999</v>
       </c>
     </row>
     <row r="486">
@@ -10083,7 +10082,7 @@
         <v>281.445</v>
       </c>
       <c r="F486" t="n">
-        <v>0.69573204</v>
+        <v>695.73204</v>
       </c>
     </row>
     <row r="487">
@@ -10103,7 +10102,7 @@
         <v>196.665</v>
       </c>
       <c r="F487" t="n">
-        <v>0.4554761399999999</v>
+        <v>455.4761399999999</v>
       </c>
     </row>
     <row r="488">
@@ -10123,7 +10122,7 @@
         <v>220.83</v>
       </c>
       <c r="F488" t="n">
-        <v>0.5282253599999999</v>
+        <v>528.2253599999999</v>
       </c>
     </row>
     <row r="489">
@@ -10143,7 +10142,7 @@
         <v>242.73</v>
       </c>
       <c r="F489" t="n">
-        <v>0.59323212</v>
+        <v>593.23212</v>
       </c>
     </row>
     <row r="490">
@@ -10163,7 +10162,7 @@
         <v>210.99</v>
       </c>
       <c r="F490" t="n">
-        <v>0.49540452</v>
+        <v>495.40452</v>
       </c>
     </row>
     <row r="491">
@@ -10183,7 +10182,7 @@
         <v>289.215</v>
       </c>
       <c r="F491" t="n">
-        <v>0.72650808</v>
+        <v>726.5080799999999</v>
       </c>
     </row>
     <row r="492">
@@ -10203,7 +10202,7 @@
         <v>152.685</v>
       </c>
       <c r="F492" t="n">
-        <v>0.34445736</v>
+        <v>344.45736</v>
       </c>
     </row>
     <row r="493">
@@ -10223,7 +10222,7 @@
         <v>225.165</v>
       </c>
       <c r="F493" t="n">
-        <v>0.5331907199999999</v>
+        <v>533.1907199999999</v>
       </c>
     </row>
     <row r="494">
@@ -10243,7 +10242,7 @@
         <v>118.725</v>
       </c>
       <c r="F494" t="n">
-        <v>0.2654691</v>
+        <v>265.4691</v>
       </c>
     </row>
     <row r="495">
@@ -10263,7 +10262,7 @@
         <v>283.53</v>
       </c>
       <c r="F495" t="n">
-        <v>0.7054226399999999</v>
+        <v>705.4226399999999</v>
       </c>
     </row>
     <row r="496">
@@ -10283,7 +10282,7 @@
         <v>262.53</v>
       </c>
       <c r="F496" t="n">
-        <v>0.63637272</v>
+        <v>636.37272</v>
       </c>
     </row>
     <row r="497">
@@ -10303,7 +10302,7 @@
         <v>259.785</v>
       </c>
       <c r="F497" t="n">
-        <v>0.6286797</v>
+        <v>628.6796999999999</v>
       </c>
     </row>
     <row r="498">
@@ -10323,7 +10322,7 @@
         <v>258.615</v>
       </c>
       <c r="F498" t="n">
-        <v>0.620676</v>
+        <v>620.676</v>
       </c>
     </row>
     <row r="499">
@@ -10343,7 +10342,7 @@
         <v>257.625</v>
       </c>
       <c r="F499" t="n">
-        <v>0.6183</v>
+        <v>618.3</v>
       </c>
     </row>
     <row r="500">
@@ -10363,7 +10362,7 @@
         <v>277.2</v>
       </c>
       <c r="F500" t="n">
-        <v>0.6852383999999999</v>
+        <v>685.2384</v>
       </c>
     </row>
     <row r="501">
@@ -10383,7 +10382,7 @@
         <v>78.105</v>
       </c>
       <c r="F501" t="n">
-        <v>0.17276826</v>
+        <v>172.76826</v>
       </c>
     </row>
     <row r="502">
@@ -10403,7 +10402,7 @@
         <v>84.375</v>
       </c>
       <c r="F502" t="n">
-        <v>0.1863</v>
+        <v>186.3</v>
       </c>
     </row>
     <row r="503">
@@ -10423,7 +10422,7 @@
         <v>109.665</v>
       </c>
       <c r="F503" t="n">
-        <v>0.24433362</v>
+        <v>244.33362</v>
       </c>
     </row>
     <row r="504">
@@ -10443,7 +10442,7 @@
         <v>74.00999999999999</v>
       </c>
       <c r="F504" t="n">
-        <v>0.16341408</v>
+        <v>163.41408</v>
       </c>
     </row>
     <row r="505">
@@ -10463,7 +10462,7 @@
         <v>57.93</v>
       </c>
       <c r="F505" t="n">
-        <v>0.12698256</v>
+        <v>126.98256</v>
       </c>
     </row>
     <row r="506">
@@ -10483,7 +10482,7 @@
         <v>58.54499999999999</v>
       </c>
       <c r="F506" t="n">
-        <v>0.12809646</v>
+        <v>128.09646</v>
       </c>
     </row>
     <row r="507">
@@ -10503,7 +10502,7 @@
         <v>93.19499999999999</v>
       </c>
       <c r="F507" t="n">
-        <v>0.20652012</v>
+        <v>206.52012</v>
       </c>
     </row>
     <row r="508">
@@ -10523,7 +10522,7 @@
         <v>123.87</v>
       </c>
       <c r="F508" t="n">
-        <v>0.2774688</v>
+        <v>277.4688</v>
       </c>
     </row>
     <row r="509">
@@ -10543,7 +10542,7 @@
         <v>66.3</v>
       </c>
       <c r="F509" t="n">
-        <v>0.1450644</v>
+        <v>145.0644</v>
       </c>
     </row>
     <row r="510">
@@ -10563,7 +10562,7 @@
         <v>76.64999999999999</v>
       </c>
       <c r="F510" t="n">
-        <v>0.1698564</v>
+        <v>169.8564</v>
       </c>
     </row>
     <row r="511">
@@ -10583,7 +10582,7 @@
         <v>90.19499999999999</v>
       </c>
       <c r="F511" t="n">
-        <v>0.2002329</v>
+        <v>200.2329</v>
       </c>
     </row>
     <row r="512">
@@ -10603,7 +10602,7 @@
         <v>66.53999999999999</v>
       </c>
       <c r="F512" t="n">
-        <v>0.14612184</v>
+        <v>146.12184</v>
       </c>
     </row>
     <row r="513">
@@ -10623,7 +10622,7 @@
         <v>53.175</v>
       </c>
       <c r="F513" t="n">
-        <v>0.1165596</v>
+        <v>116.5596</v>
       </c>
     </row>
     <row r="514">
@@ -10643,7 +10642,7 @@
         <v>52.68</v>
       </c>
       <c r="F514" t="n">
-        <v>0.11547456</v>
+        <v>115.47456</v>
       </c>
     </row>
     <row r="515">
@@ -10663,7 +10662,7 @@
         <v>51.87</v>
       </c>
       <c r="F515" t="n">
-        <v>0.11328408</v>
+        <v>113.28408</v>
       </c>
     </row>
     <row r="516">
@@ -10683,7 +10682,7 @@
         <v>51.36</v>
       </c>
       <c r="F516" t="n">
-        <v>0.11175936</v>
+        <v>111.75936</v>
       </c>
     </row>
     <row r="517">
@@ -10703,7 +10702,7 @@
         <v>51.87</v>
       </c>
       <c r="F517" t="n">
-        <v>0.1130766</v>
+        <v>113.0766</v>
       </c>
     </row>
     <row r="518">
@@ -10723,7 +10722,7 @@
         <v>52.89</v>
       </c>
       <c r="F518" t="n">
-        <v>0.11487708</v>
+        <v>114.87708</v>
       </c>
     </row>
     <row r="519">
@@ -10743,7 +10742,7 @@
         <v>54.87</v>
       </c>
       <c r="F519" t="n">
-        <v>0.12005556</v>
+        <v>120.05556</v>
       </c>
     </row>
     <row r="520">
@@ -10763,7 +10762,7 @@
         <v>57.585</v>
       </c>
       <c r="F520" t="n">
-        <v>0.12530496</v>
+        <v>125.30496</v>
       </c>
     </row>
     <row r="521">
@@ -10783,7 +10782,7 @@
         <v>53.805</v>
       </c>
       <c r="F521" t="n">
-        <v>0.11794056</v>
+        <v>117.94056</v>
       </c>
     </row>
     <row r="522">
@@ -10803,7 +10802,7 @@
         <v>45.06</v>
       </c>
       <c r="F522" t="n">
-        <v>0.09841104000000001</v>
+        <v>98.41104</v>
       </c>
     </row>
     <row r="523">
@@ -10823,7 +10822,7 @@
         <v>43.515</v>
       </c>
       <c r="F523" t="n">
-        <v>0.09486270000000001</v>
+        <v>94.8627</v>
       </c>
     </row>
     <row r="524">
@@ -10843,7 +10842,7 @@
         <v>43.32</v>
       </c>
       <c r="F524" t="n">
-        <v>0.09426432000000001</v>
+        <v>94.26432000000001</v>
       </c>
     </row>
     <row r="525">
@@ -10863,7 +10862,7 @@
         <v>42.585</v>
       </c>
       <c r="F525" t="n">
-        <v>0.09300564000000001</v>
+        <v>93.00564000000001</v>
       </c>
     </row>
     <row r="526">
@@ -10883,7 +10882,7 @@
         <v>41.325</v>
       </c>
       <c r="F526" t="n">
-        <v>0.0900885</v>
+        <v>90.0885</v>
       </c>
     </row>
     <row r="527">
@@ -10903,7 +10902,7 @@
         <v>39.99</v>
       </c>
       <c r="F527" t="n">
-        <v>0.08701824000000001</v>
+        <v>87.01824000000001</v>
       </c>
     </row>
     <row r="528">
@@ -10923,7 +10922,7 @@
         <v>38.115</v>
       </c>
       <c r="F528" t="n">
-        <v>0.08278578000000002</v>
+        <v>82.78578000000002</v>
       </c>
     </row>
     <row r="529">
@@ -10943,7 +10942,7 @@
         <v>35.925</v>
       </c>
       <c r="F529" t="n">
-        <v>0.0780291</v>
+        <v>78.0291</v>
       </c>
     </row>
     <row r="530">
@@ -10963,7 +10962,7 @@
         <v>32.085</v>
       </c>
       <c r="F530" t="n">
-        <v>0.06930360000000001</v>
+        <v>69.3036</v>
       </c>
     </row>
     <row r="531">
@@ -10983,7 +10982,7 @@
         <v>32.13</v>
       </c>
       <c r="F531" t="n">
-        <v>0.06978636000000001</v>
+        <v>69.78636</v>
       </c>
     </row>
     <row r="532">
@@ -11003,7 +11002,7 @@
         <v>32.505</v>
       </c>
       <c r="F532" t="n">
-        <v>0.07060086</v>
+        <v>70.60086</v>
       </c>
     </row>
     <row r="533">
@@ -11023,7 +11022,7 @@
         <v>32.85</v>
       </c>
       <c r="F533" t="n">
-        <v>0.07135020000000002</v>
+        <v>71.35020000000002</v>
       </c>
     </row>
     <row r="534">
@@ -11043,7 +11042,7 @@
         <v>33.285</v>
       </c>
       <c r="F534" t="n">
-        <v>0.07242815999999999</v>
+        <v>72.42815999999999</v>
       </c>
     </row>
     <row r="535">
@@ -11063,7 +11062,7 @@
         <v>33.015</v>
       </c>
       <c r="F535" t="n">
-        <v>0.07131240000000001</v>
+        <v>71.31240000000001</v>
       </c>
     </row>
     <row r="536">
@@ -11083,7 +11082,7 @@
         <v>32.145</v>
       </c>
       <c r="F536" t="n">
-        <v>0.06981894</v>
+        <v>69.81894</v>
       </c>
     </row>
     <row r="537">
@@ -11103,7 +11102,7 @@
         <v>31.5</v>
       </c>
       <c r="F537" t="n">
-        <v>0.068166</v>
+        <v>68.16600000000001</v>
       </c>
     </row>
     <row r="538">
@@ -11123,7 +11122,7 @@
         <v>30.09</v>
       </c>
       <c r="F538" t="n">
-        <v>0.06535547999999999</v>
+        <v>65.35548</v>
       </c>
     </row>
     <row r="539">
@@ -11143,7 +11142,7 @@
         <v>28.71</v>
       </c>
       <c r="F539" t="n">
-        <v>0.06270263999999999</v>
+        <v>62.70263999999999</v>
       </c>
     </row>
     <row r="540">
@@ -11163,7 +11162,7 @@
         <v>28.155</v>
       </c>
       <c r="F540" t="n">
-        <v>0.06070218</v>
+        <v>60.70218</v>
       </c>
     </row>
     <row r="541">
@@ -11183,7 +11182,7 @@
         <v>27.66</v>
       </c>
       <c r="F541" t="n">
-        <v>0.0597456</v>
+        <v>59.7456</v>
       </c>
     </row>
     <row r="542">
@@ -11203,7 +11202,7 @@
         <v>27.555</v>
       </c>
       <c r="F542" t="n">
-        <v>0.0595188</v>
+        <v>59.5188</v>
       </c>
     </row>
     <row r="543">
@@ -11223,7 +11222,7 @@
         <v>27.495</v>
       </c>
       <c r="F543" t="n">
-        <v>0.05960915999999999</v>
+        <v>59.60915999999999</v>
       </c>
     </row>
     <row r="544">
@@ -11243,7 +11242,7 @@
         <v>27.045</v>
       </c>
       <c r="F544" t="n">
-        <v>0.0584172</v>
+        <v>58.4172</v>
       </c>
     </row>
     <row r="545">
@@ -11263,7 +11262,7 @@
         <v>26.745</v>
       </c>
       <c r="F545" t="n">
-        <v>0.05809014</v>
+        <v>58.09014</v>
       </c>
     </row>
     <row r="546">
@@ -11283,7 +11282,7 @@
         <v>27.9</v>
       </c>
       <c r="F546" t="n">
-        <v>0.060822</v>
+        <v>60.822</v>
       </c>
     </row>
     <row r="547">
@@ -11303,7 +11302,7 @@
         <v>28.635</v>
       </c>
       <c r="F547" t="n">
-        <v>0.06150798</v>
+        <v>61.50798</v>
       </c>
     </row>
     <row r="548">
@@ -11323,7 +11322,7 @@
         <v>29.265</v>
       </c>
       <c r="F548" t="n">
-        <v>0.06379770000000001</v>
+        <v>63.79770000000001</v>
       </c>
     </row>
     <row r="549">
@@ -11343,7 +11342,7 @@
         <v>30.27</v>
       </c>
       <c r="F549" t="n">
-        <v>0.06489888000000001</v>
+        <v>64.89888000000001</v>
       </c>
     </row>
     <row r="550">
@@ -11363,7 +11362,7 @@
         <v>30.24</v>
       </c>
       <c r="F550" t="n">
-        <v>0.06519744</v>
+        <v>65.19744</v>
       </c>
     </row>
     <row r="551">
@@ -11383,7 +11382,7 @@
         <v>28.275</v>
       </c>
       <c r="F551" t="n">
-        <v>0.06096090000000001</v>
+        <v>60.96090000000001</v>
       </c>
     </row>
     <row r="552">
@@ -11403,7 +11402,7 @@
         <v>27.15</v>
       </c>
       <c r="F552" t="n">
-        <v>0.0585354</v>
+        <v>58.5354</v>
       </c>
     </row>
     <row r="553">
@@ -11423,7 +11422,7 @@
         <v>26.985</v>
       </c>
       <c r="F553" t="n">
-        <v>0.05839554</v>
+        <v>58.39554</v>
       </c>
     </row>
     <row r="554">
@@ -11443,7 +11442,7 @@
         <v>26.85</v>
       </c>
       <c r="F554" t="n">
-        <v>0.0578886</v>
+        <v>57.8886</v>
       </c>
     </row>
     <row r="555">
@@ -11463,7 +11462,7 @@
         <v>26.67</v>
       </c>
       <c r="F555" t="n">
-        <v>0.05835396</v>
+        <v>58.35396</v>
       </c>
     </row>
     <row r="556">
@@ -11483,7 +11482,7 @@
         <v>26.28</v>
       </c>
       <c r="F556" t="n">
-        <v>0.05665968</v>
+        <v>56.65967999999999</v>
       </c>
     </row>
     <row r="557">
@@ -11503,7 +11502,7 @@
         <v>26.955</v>
       </c>
       <c r="F557" t="n">
-        <v>0.05833062000000001</v>
+        <v>58.33062</v>
       </c>
     </row>
     <row r="558">
@@ -11523,7 +11522,7 @@
         <v>27.54</v>
       </c>
       <c r="F558" t="n">
-        <v>0.0594864</v>
+        <v>59.4864</v>
       </c>
     </row>
     <row r="559">
@@ -11543,7 +11542,7 @@
         <v>28.095</v>
       </c>
       <c r="F559" t="n">
-        <v>0.0606852</v>
+        <v>60.6852</v>
       </c>
     </row>
     <row r="560">
@@ -11563,7 +11562,7 @@
         <v>29.055</v>
       </c>
       <c r="F560" t="n">
-        <v>0.06264258</v>
+        <v>62.64258</v>
       </c>
     </row>
     <row r="561">
@@ -11583,7 +11582,7 @@
         <v>28.995</v>
       </c>
       <c r="F561" t="n">
-        <v>0.06228126</v>
+        <v>62.28126</v>
       </c>
     </row>
     <row r="562">
@@ -11603,7 +11602,7 @@
         <v>29.16</v>
       </c>
       <c r="F562" t="n">
-        <v>0.06321888000000001</v>
+        <v>63.21888000000001</v>
       </c>
     </row>
     <row r="563">
@@ -11623,7 +11622,7 @@
         <v>29.13</v>
       </c>
       <c r="F563" t="n">
-        <v>0.06327036</v>
+        <v>63.27036</v>
       </c>
     </row>
     <row r="564">
@@ -11643,7 +11642,7 @@
         <v>28.71</v>
       </c>
       <c r="F564" t="n">
-        <v>0.0620136</v>
+        <v>62.0136</v>
       </c>
     </row>
     <row r="565">
@@ -11663,7 +11662,7 @@
         <v>28.155</v>
       </c>
       <c r="F565" t="n">
-        <v>0.06160313999999999</v>
+        <v>61.60313999999999</v>
       </c>
     </row>
     <row r="566">
@@ -11683,7 +11682,7 @@
         <v>26.91</v>
       </c>
       <c r="F566" t="n">
-        <v>0.05823324000000001</v>
+        <v>58.23324000000001</v>
       </c>
     </row>
     <row r="567">
@@ -11703,7 +11702,7 @@
         <v>26.355</v>
       </c>
       <c r="F567" t="n">
-        <v>0.05713764</v>
+        <v>57.13764</v>
       </c>
     </row>
     <row r="568">
@@ -11723,7 +11722,7 @@
         <v>26.73</v>
       </c>
       <c r="F568" t="n">
-        <v>0.05730912000000001</v>
+        <v>57.30912000000001</v>
       </c>
     </row>
     <row r="569">
@@ -11743,7 +11742,7 @@
         <v>30.135</v>
       </c>
       <c r="F569" t="n">
-        <v>0.06545322000000001</v>
+        <v>65.45322</v>
       </c>
     </row>
     <row r="570">
@@ -11763,7 +11762,7 @@
         <v>31.545</v>
       </c>
       <c r="F570" t="n">
-        <v>0.06838956</v>
+        <v>68.38956</v>
       </c>
     </row>
     <row r="571">
@@ -11783,7 +11782,7 @@
         <v>32.82</v>
       </c>
       <c r="F571" t="n">
-        <v>0.07102248</v>
+        <v>71.02248</v>
       </c>
     </row>
     <row r="572">
@@ -11803,7 +11802,7 @@
         <v>35.655</v>
       </c>
       <c r="F572" t="n">
-        <v>0.07744266000000001</v>
+        <v>77.44266</v>
       </c>
     </row>
     <row r="573">
@@ -11823,7 +11822,7 @@
         <v>37.845</v>
       </c>
       <c r="F573" t="n">
-        <v>0.08219934000000001</v>
+        <v>82.19934000000001</v>
       </c>
     </row>
     <row r="574">
@@ -11843,7 +11842,7 @@
         <v>44.25</v>
       </c>
       <c r="F574" t="n">
-        <v>0.096111</v>
+        <v>96.111</v>
       </c>
     </row>
     <row r="575">
@@ -11863,7 +11862,7 @@
         <v>47.415</v>
       </c>
       <c r="F575" t="n">
-        <v>0.10374402</v>
+        <v>103.74402</v>
       </c>
     </row>
     <row r="576">
@@ -11883,7 +11882,7 @@
         <v>54.405</v>
       </c>
       <c r="F576" t="n">
-        <v>0.11816766</v>
+        <v>118.16766</v>
       </c>
     </row>
     <row r="577">
@@ -11903,7 +11902,7 @@
         <v>60.51</v>
       </c>
       <c r="F577" t="n">
-        <v>0.13287996</v>
+        <v>132.87996</v>
       </c>
     </row>
     <row r="578">
@@ -11923,7 +11922,7 @@
         <v>61.395</v>
       </c>
       <c r="F578" t="n">
-        <v>0.13408668</v>
+        <v>134.08668</v>
       </c>
     </row>
     <row r="579">
@@ -11943,7 +11942,7 @@
         <v>60.61499999999999</v>
       </c>
       <c r="F579" t="n">
-        <v>0.13311054</v>
+        <v>133.11054</v>
       </c>
     </row>
     <row r="580">
@@ -11963,7 +11962,7 @@
         <v>59.325</v>
       </c>
       <c r="F580" t="n">
-        <v>0.1290912</v>
+        <v>129.0912</v>
       </c>
     </row>
     <row r="581">
@@ -11983,7 +11982,7 @@
         <v>79.185</v>
       </c>
       <c r="F581" t="n">
-        <v>0.17452374</v>
+        <v>174.52374</v>
       </c>
     </row>
     <row r="582">
@@ -12003,7 +12002,7 @@
         <v>86.625</v>
       </c>
       <c r="F582" t="n">
-        <v>0.191268</v>
+        <v>191.268</v>
       </c>
     </row>
     <row r="583">
@@ -12023,7 +12022,7 @@
         <v>79.845</v>
       </c>
       <c r="F583" t="n">
-        <v>0.17629776</v>
+        <v>176.29776</v>
       </c>
     </row>
     <row r="584">
@@ -12043,7 +12042,7 @@
         <v>64.545</v>
       </c>
       <c r="F584" t="n">
-        <v>0.14225718</v>
+        <v>142.25718</v>
       </c>
     </row>
     <row r="585">
@@ -12063,7 +12062,7 @@
         <v>56.88</v>
       </c>
       <c r="F585" t="n">
-        <v>0.12445344</v>
+        <v>124.45344</v>
       </c>
     </row>
     <row r="586">
@@ -12083,7 +12082,7 @@
         <v>47.88</v>
       </c>
       <c r="F586" t="n">
-        <v>0.10456992</v>
+        <v>104.56992</v>
       </c>
     </row>
     <row r="587">
@@ -12103,7 +12102,7 @@
         <v>34.455</v>
       </c>
       <c r="F587" t="n">
-        <v>0.07469844</v>
+        <v>74.69844000000001</v>
       </c>
     </row>
     <row r="588">
@@ -12123,7 +12122,7 @@
         <v>32.595</v>
       </c>
       <c r="F588" t="n">
-        <v>0.07066596</v>
+        <v>70.66596</v>
       </c>
     </row>
     <row r="589">
@@ -12143,7 +12142,7 @@
         <v>22.215</v>
       </c>
       <c r="F589" t="n">
-        <v>0.04816212</v>
+        <v>48.16212</v>
       </c>
     </row>
     <row r="590">
@@ -12163,7 +12162,7 @@
         <v>25.59</v>
       </c>
       <c r="F590" t="n">
-        <v>0.0552744</v>
+        <v>55.2744</v>
       </c>
     </row>
     <row r="591">
@@ -12183,7 +12182,7 @@
         <v>25.905</v>
       </c>
       <c r="F591" t="n">
-        <v>0.05605842</v>
+        <v>56.05842</v>
       </c>
     </row>
     <row r="592">
@@ -12203,7 +12202,7 @@
         <v>26.49</v>
       </c>
       <c r="F592" t="n">
-        <v>0.05711244</v>
+        <v>57.11244</v>
       </c>
     </row>
     <row r="593">
@@ -12223,7 +12222,7 @@
         <v>25.86</v>
       </c>
       <c r="F593" t="n">
-        <v>0.05606448</v>
+        <v>56.06448</v>
       </c>
     </row>
     <row r="594">
@@ -12243,7 +12242,7 @@
         <v>26.895</v>
       </c>
       <c r="F594" t="n">
-        <v>0.05830836</v>
+        <v>58.30835999999999</v>
       </c>
     </row>
     <row r="595">
@@ -12263,7 +12262,7 @@
         <v>27.105</v>
       </c>
       <c r="F595" t="n">
-        <v>0.05832996000000001</v>
+        <v>58.32996000000001</v>
       </c>
     </row>
     <row r="596">
@@ -12283,7 +12282,7 @@
         <v>27.15</v>
       </c>
       <c r="F596" t="n">
-        <v>0.0582096</v>
+        <v>58.2096</v>
       </c>
     </row>
     <row r="597">
@@ -12303,7 +12302,7 @@
         <v>26.925</v>
       </c>
       <c r="F597" t="n">
-        <v>0.0579426</v>
+        <v>57.9426</v>
       </c>
     </row>
     <row r="598">
@@ -12323,7 +12322,7 @@
         <v>26.535</v>
       </c>
       <c r="F598" t="n">
-        <v>0.05774016000000001</v>
+        <v>57.74016000000001</v>
       </c>
     </row>
     <row r="599">
@@ -12343,7 +12342,7 @@
         <v>26.01</v>
       </c>
       <c r="F599" t="n">
-        <v>0.05690988</v>
+        <v>56.90988</v>
       </c>
     </row>
     <row r="600">
@@ -12363,7 +12362,7 @@
         <v>25.605</v>
       </c>
       <c r="F600" t="n">
-        <v>0.05489712</v>
+        <v>54.89712</v>
       </c>
     </row>
     <row r="601">
@@ -12383,7 +12382,7 @@
         <v>25.11</v>
       </c>
       <c r="F601" t="n">
-        <v>0.05453892</v>
+        <v>54.53892</v>
       </c>
     </row>
     <row r="602">
@@ -12403,7 +12402,7 @@
         <v>24.075</v>
       </c>
       <c r="F602" t="n">
-        <v>0.05190570000000001</v>
+        <v>51.90570000000001</v>
       </c>
     </row>
     <row r="603">
@@ -12423,7 +12422,7 @@
         <v>23.115</v>
       </c>
       <c r="F603" t="n">
-        <v>0.05011332</v>
+        <v>50.11332</v>
       </c>
     </row>
     <row r="604">
@@ -12443,7 +12442,7 @@
         <v>22.215</v>
       </c>
       <c r="F604" t="n">
-        <v>0.04762896</v>
+        <v>47.62896</v>
       </c>
     </row>
     <row r="605">
@@ -12463,7 +12462,7 @@
         <v>21.36</v>
       </c>
       <c r="F605" t="n">
-        <v>0.04605216</v>
+        <v>46.05216</v>
       </c>
     </row>
     <row r="606">
@@ -12483,7 +12482,7 @@
         <v>20.385</v>
       </c>
       <c r="F606" t="n">
-        <v>0.04346082</v>
+        <v>43.46082</v>
       </c>
     </row>
     <row r="607">
@@ -12503,7 +12502,7 @@
         <v>19.335</v>
       </c>
       <c r="F607" t="n">
-        <v>0.04207296</v>
+        <v>42.07296</v>
       </c>
     </row>
     <row r="608">
@@ -12523,7 +12522,7 @@
         <v>18.36</v>
       </c>
       <c r="F608" t="n">
-        <v>0.03943728</v>
+        <v>39.43728</v>
       </c>
     </row>
     <row r="609">
@@ -12543,7 +12542,7 @@
         <v>15.945</v>
       </c>
       <c r="F609" t="n">
-        <v>0.0341223</v>
+        <v>34.1223</v>
       </c>
     </row>
     <row r="610">
@@ -12563,7 +12562,7 @@
         <v>12.615</v>
       </c>
       <c r="F610" t="n">
-        <v>0.02709702</v>
+        <v>27.09702</v>
       </c>
     </row>
     <row r="611">
@@ -12583,7 +12582,7 @@
         <v>11.415</v>
       </c>
       <c r="F611" t="n">
-        <v>0.02424546</v>
+        <v>24.24546</v>
       </c>
     </row>
     <row r="612">
@@ -12603,7 +12602,7 @@
         <v>9.975</v>
       </c>
       <c r="F612" t="n">
-        <v>0.0214263</v>
+        <v>21.4263</v>
       </c>
     </row>
     <row r="613">
@@ -12623,7 +12622,7 @@
         <v>9.555</v>
       </c>
       <c r="F613" t="n">
-        <v>0.02060058</v>
+        <v>20.60058</v>
       </c>
     </row>
     <row r="614">
@@ -12643,7 +12642,7 @@
         <v>9.195</v>
       </c>
       <c r="F614" t="n">
-        <v>0.01978764</v>
+        <v>19.78764</v>
       </c>
     </row>
     <row r="615">
@@ -12663,7 +12662,7 @@
         <v>8.969999999999999</v>
       </c>
       <c r="F615" t="n">
-        <v>0.01890876</v>
+        <v>18.90876</v>
       </c>
     </row>
     <row r="616">
@@ -12683,7 +12682,7 @@
         <v>8.895</v>
       </c>
       <c r="F616" t="n">
-        <v>0.01875066</v>
+        <v>18.75066</v>
       </c>
     </row>
     <row r="617">
@@ -12703,7 +12702,7 @@
         <v>8.895</v>
       </c>
       <c r="F617" t="n">
-        <v>0.01896414</v>
+        <v>18.96414</v>
       </c>
     </row>
     <row r="618">
@@ -12723,7 +12722,7 @@
         <v>9</v>
       </c>
       <c r="F618" t="n">
-        <v>0.019368</v>
+        <v>19.368</v>
       </c>
     </row>
     <row r="619">
@@ -12743,7 +12742,7 @@
         <v>9.435</v>
       </c>
       <c r="F619" t="n">
-        <v>0.01985124</v>
+        <v>19.85124</v>
       </c>
     </row>
     <row r="620">
@@ -12763,7 +12762,7 @@
         <v>9.99</v>
       </c>
       <c r="F620" t="n">
-        <v>0.02181816</v>
+        <v>21.81816</v>
       </c>
     </row>
     <row r="621">
@@ -12783,7 +12782,7 @@
         <v>10.26</v>
       </c>
       <c r="F621" t="n">
-        <v>0.02171016</v>
+        <v>21.71016</v>
       </c>
     </row>
     <row r="622">
@@ -12803,7 +12802,7 @@
         <v>10.26</v>
       </c>
       <c r="F622" t="n">
-        <v>0.02207952</v>
+        <v>22.07952</v>
       </c>
     </row>
     <row r="623">
@@ -12823,7 +12822,7 @@
         <v>10.38</v>
       </c>
       <c r="F623" t="n">
-        <v>0.02233776</v>
+        <v>22.33776</v>
       </c>
     </row>
     <row r="624">
@@ -12843,7 +12842,7 @@
         <v>10.515</v>
       </c>
       <c r="F624" t="n">
-        <v>0.02288064</v>
+        <v>22.88064</v>
       </c>
     </row>
     <row r="625">
@@ -12863,7 +12862,7 @@
         <v>10.59</v>
       </c>
       <c r="F625" t="n">
-        <v>0.02257788</v>
+        <v>22.57788</v>
       </c>
     </row>
     <row r="626">
@@ -12883,7 +12882,7 @@
         <v>10.53</v>
       </c>
       <c r="F626" t="n">
-        <v>0.02270268</v>
+        <v>22.70268</v>
       </c>
     </row>
     <row r="627">
@@ -12903,7 +12902,7 @@
         <v>10.38</v>
       </c>
       <c r="F627" t="n">
-        <v>0.0222132</v>
+        <v>22.2132</v>
       </c>
     </row>
     <row r="628">
@@ -12923,7 +12922,7 @@
         <v>10.32</v>
       </c>
       <c r="F628" t="n">
-        <v>0.02253888</v>
+        <v>22.53888</v>
       </c>
     </row>
     <row r="629">
@@ -12943,7 +12942,7 @@
         <v>10.155</v>
       </c>
       <c r="F629" t="n">
-        <v>0.0219348</v>
+        <v>21.9348</v>
       </c>
     </row>
     <row r="630">
@@ -12963,7 +12962,7 @@
         <v>10.095</v>
       </c>
       <c r="F630" t="n">
-        <v>0.02132064</v>
+        <v>21.32064</v>
       </c>
     </row>
     <row r="631">
@@ -12983,7 +12982,7 @@
         <v>10.2</v>
       </c>
       <c r="F631" t="n">
-        <v>0.0218688</v>
+        <v>21.8688</v>
       </c>
     </row>
     <row r="632">
@@ -13003,7 +13002,7 @@
         <v>10.35</v>
       </c>
       <c r="F632" t="n">
-        <v>0.0224802</v>
+        <v>22.4802</v>
       </c>
     </row>
     <row r="633">
@@ -13023,7 +13022,7 @@
         <v>10.59</v>
       </c>
       <c r="F633" t="n">
-        <v>0.0226626</v>
+        <v>22.6626</v>
       </c>
     </row>
     <row r="634">
@@ -13043,7 +13042,7 @@
         <v>11.415</v>
       </c>
       <c r="F634" t="n">
-        <v>0.02479338</v>
+        <v>24.79338</v>
       </c>
     </row>
     <row r="635">
@@ -13063,7 +13062,7 @@
         <v>12.315</v>
       </c>
       <c r="F635" t="n">
-        <v>0.0266004</v>
+        <v>26.6004</v>
       </c>
     </row>
     <row r="636">
@@ -13083,7 +13082,7 @@
         <v>12.915</v>
       </c>
       <c r="F636" t="n">
-        <v>0.02805138</v>
+        <v>28.05138</v>
       </c>
     </row>
     <row r="637">
@@ -13103,7 +13102,7 @@
         <v>12.6</v>
       </c>
       <c r="F637" t="n">
-        <v>0.0268632</v>
+        <v>26.8632</v>
       </c>
     </row>
     <row r="638">
@@ -13123,7 +13122,7 @@
         <v>12.18</v>
       </c>
       <c r="F638" t="n">
-        <v>0.02635752</v>
+        <v>26.35752</v>
       </c>
     </row>
     <row r="639">
@@ -13143,7 +13142,7 @@
         <v>11.61</v>
       </c>
       <c r="F639" t="n">
-        <v>0.02447388</v>
+        <v>24.47388</v>
       </c>
     </row>
     <row r="640">
@@ -13163,7 +13162,7 @@
         <v>10.485</v>
       </c>
       <c r="F640" t="n">
-        <v>0.02252178</v>
+        <v>22.52178</v>
       </c>
     </row>
     <row r="641">
@@ -13183,7 +13182,7 @@
         <v>10.095</v>
       </c>
       <c r="F641" t="n">
-        <v>0.02208786</v>
+        <v>22.08786</v>
       </c>
     </row>
     <row r="642">
@@ -13203,7 +13202,7 @@
         <v>9.764999999999999</v>
       </c>
       <c r="F642" t="n">
-        <v>0.02124864</v>
+        <v>21.24864</v>
       </c>
     </row>
     <row r="643">
@@ -13223,7 +13222,7 @@
         <v>9.404999999999999</v>
       </c>
       <c r="F643" t="n">
-        <v>0.02057814</v>
+        <v>20.57814</v>
       </c>
     </row>
     <row r="644">
@@ -13243,7 +13242,7 @@
         <v>9.299999999999999</v>
       </c>
       <c r="F644" t="n">
-        <v>0.0198276</v>
+        <v>19.8276</v>
       </c>
     </row>
     <row r="645">
@@ -13263,7 +13262,7 @@
         <v>9.404999999999999</v>
       </c>
       <c r="F645" t="n">
-        <v>0.02039004</v>
+        <v>20.39004</v>
       </c>
     </row>
     <row r="646">
@@ -13283,7 +13282,7 @@
         <v>9.315</v>
       </c>
       <c r="F646" t="n">
-        <v>0.01963602</v>
+        <v>19.63602</v>
       </c>
     </row>
     <row r="647">
@@ -13303,7 +13302,7 @@
         <v>9.119999999999999</v>
       </c>
       <c r="F647" t="n">
-        <v>0.0198816</v>
+        <v>19.8816</v>
       </c>
     </row>
     <row r="648">
@@ -13323,7 +13322,7 @@
         <v>8.43</v>
       </c>
       <c r="F648" t="n">
-        <v>0.01810764</v>
+        <v>18.10764</v>
       </c>
     </row>
     <row r="649">
@@ -13343,7 +13342,7 @@
         <v>8.01</v>
       </c>
       <c r="F649" t="n">
-        <v>0.01720548</v>
+        <v>17.20548</v>
       </c>
     </row>
     <row r="650">
@@ -13363,7 +13362,7 @@
         <v>7.649999999999999</v>
       </c>
       <c r="F650" t="n">
-        <v>0.0163404</v>
+        <v>16.3404</v>
       </c>
     </row>
     <row r="651">
@@ -13383,7 +13382,7 @@
         <v>7.274999999999999</v>
       </c>
       <c r="F651" t="n">
-        <v>0.0158304</v>
+        <v>15.8304</v>
       </c>
     </row>
     <row r="652">
@@ -13403,7 +13402,7 @@
         <v>6.93</v>
       </c>
       <c r="F652" t="n">
-        <v>0.01516284</v>
+        <v>15.16284</v>
       </c>
     </row>
     <row r="653">
@@ -13423,7 +13422,7 @@
         <v>5.835</v>
       </c>
       <c r="F653" t="n">
-        <v>0.01262694</v>
+        <v>12.62694</v>
       </c>
     </row>
     <row r="654">
@@ -13443,7 +13442,7 @@
         <v>5.625</v>
       </c>
       <c r="F654" t="n">
-        <v>0.01224</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="655">
@@ -13463,7 +13462,7 @@
         <v>5.415</v>
       </c>
       <c r="F655" t="n">
-        <v>0.01173972</v>
+        <v>11.73972</v>
       </c>
     </row>
     <row r="656">
@@ -13483,7 +13482,7 @@
         <v>5.234999999999999</v>
       </c>
       <c r="F656" t="n">
-        <v>0.011517</v>
+        <v>11.517</v>
       </c>
     </row>
     <row r="657">
@@ -13503,7 +13502,7 @@
         <v>5.069999999999999</v>
       </c>
       <c r="F657" t="n">
-        <v>0.01080924</v>
+        <v>10.80924</v>
       </c>
     </row>
     <row r="658">
@@ -13523,7 +13522,7 @@
         <v>4.905</v>
       </c>
       <c r="F658" t="n">
-        <v>0.01077138</v>
+        <v>10.77138</v>
       </c>
     </row>
     <row r="659">
@@ -13543,7 +13542,7 @@
         <v>4.785</v>
       </c>
       <c r="F659" t="n">
-        <v>0.01020162</v>
+        <v>10.20162</v>
       </c>
     </row>
     <row r="660">
@@ -13563,7 +13562,7 @@
         <v>4.575</v>
       </c>
       <c r="F660" t="n">
-        <v>0.009753900000000001</v>
+        <v>9.753900000000002</v>
       </c>
     </row>
     <row r="661">
@@ -13583,7 +13582,7 @@
         <v>4.484999999999999</v>
       </c>
       <c r="F661" t="n">
-        <v>0.009508199999999998</v>
+        <v>9.508199999999999</v>
       </c>
     </row>
     <row r="662">
@@ -13603,7 +13602,7 @@
         <v>4.484999999999999</v>
       </c>
       <c r="F662" t="n">
-        <v>0.00983112</v>
+        <v>9.83112</v>
       </c>
     </row>
     <row r="663">
@@ -13623,7 +13622,7 @@
         <v>4.56</v>
       </c>
       <c r="F663" t="n">
-        <v>0.0098496</v>
+        <v>9.849600000000001</v>
       </c>
     </row>
     <row r="664">
@@ -13643,7 +13642,7 @@
         <v>5.04</v>
       </c>
       <c r="F664" t="n">
-        <v>0.01106784</v>
+        <v>11.06784</v>
       </c>
     </row>
     <row r="665">
@@ -13663,7 +13662,7 @@
         <v>5.34</v>
       </c>
       <c r="F665" t="n">
-        <v>0.01159848</v>
+        <v>11.59848</v>
       </c>
     </row>
     <row r="666">
@@ -13683,7 +13682,7 @@
         <v>5.67</v>
       </c>
       <c r="F666" t="n">
-        <v>0.01231524</v>
+        <v>12.31524</v>
       </c>
     </row>
     <row r="667">
@@ -13703,7 +13702,7 @@
         <v>6.045</v>
       </c>
       <c r="F667" t="n">
-        <v>0.01262196</v>
+        <v>12.62196</v>
       </c>
     </row>
     <row r="668">
@@ -13723,7 +13722,7 @@
         <v>6.42</v>
       </c>
       <c r="F668" t="n">
-        <v>0.01391856</v>
+        <v>13.91856</v>
       </c>
     </row>
     <row r="669">
@@ -13743,7 +13742,7 @@
         <v>7.305</v>
       </c>
       <c r="F669" t="n">
-        <v>0.01542816</v>
+        <v>15.42816</v>
       </c>
     </row>
     <row r="670">
@@ -13763,7 +13762,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="F670" t="n">
-        <v>0.01957704</v>
+        <v>19.57704</v>
       </c>
     </row>
     <row r="671">
@@ -13783,7 +13782,7 @@
         <v>9.33</v>
       </c>
       <c r="F671" t="n">
-        <v>0.01985424</v>
+        <v>19.85424</v>
       </c>
     </row>
     <row r="672">
@@ -13803,7 +13802,7 @@
         <v>9.119999999999999</v>
       </c>
       <c r="F672" t="n">
-        <v>0.0198816</v>
+        <v>19.8816</v>
       </c>
     </row>
     <row r="673">
@@ -13823,7 +13822,7 @@
         <v>8.775</v>
       </c>
       <c r="F673" t="n">
-        <v>0.0188136</v>
+        <v>18.8136</v>
       </c>
     </row>
     <row r="674">
@@ -13843,7 +13842,7 @@
         <v>8.609999999999999</v>
       </c>
       <c r="F674" t="n">
-        <v>0.01832208</v>
+        <v>18.32208</v>
       </c>
     </row>
     <row r="675">
@@ -13863,7 +13862,7 @@
         <v>8.52</v>
       </c>
       <c r="F675" t="n">
-        <v>0.01877808</v>
+        <v>18.77808</v>
       </c>
     </row>
     <row r="676">
@@ -13883,7 +13882,7 @@
         <v>8.414999999999999</v>
       </c>
       <c r="F676" t="n">
-        <v>0.01807542</v>
+        <v>18.07542</v>
       </c>
     </row>
     <row r="677">
@@ -13903,7 +13902,7 @@
         <v>8.279999999999999</v>
       </c>
       <c r="F677" t="n">
-        <v>0.0175536</v>
+        <v>17.5536</v>
       </c>
     </row>
     <row r="678">
@@ -13923,7 +13922,7 @@
         <v>8.01</v>
       </c>
       <c r="F678" t="n">
-        <v>0.01723752</v>
+        <v>17.23752</v>
       </c>
     </row>
     <row r="679">
@@ -13943,7 +13942,7 @@
         <v>7.995</v>
       </c>
       <c r="F679" t="n">
-        <v>0.01733316</v>
+        <v>17.33316</v>
       </c>
     </row>
     <row r="680">
@@ -13963,7 +13962,7 @@
         <v>7.995</v>
       </c>
       <c r="F680" t="n">
-        <v>0.01685346</v>
+        <v>16.85346</v>
       </c>
     </row>
     <row r="681">
@@ -13983,7 +13982,7 @@
         <v>8.025</v>
       </c>
       <c r="F681" t="n">
-        <v>0.017013</v>
+        <v>17.013</v>
       </c>
     </row>
     <row r="682">
@@ -14003,7 +14002,7 @@
         <v>8.039999999999999</v>
       </c>
       <c r="F682" t="n">
-        <v>0.01739856</v>
+        <v>17.39856</v>
       </c>
     </row>
     <row r="683">
@@ -14023,7 +14022,7 @@
         <v>7.995</v>
       </c>
       <c r="F683" t="n">
-        <v>0.01691742</v>
+        <v>16.91742</v>
       </c>
     </row>
     <row r="684">
@@ -14043,7 +14042,7 @@
         <v>7.935</v>
       </c>
       <c r="F684" t="n">
-        <v>0.0172983</v>
+        <v>17.2983</v>
       </c>
     </row>
     <row r="685">
@@ -14063,7 +14062,7 @@
         <v>7.665</v>
       </c>
       <c r="F685" t="n">
-        <v>0.01652574</v>
+        <v>16.52574</v>
       </c>
     </row>
     <row r="686">
@@ -14083,7 +14082,7 @@
         <v>5.565</v>
       </c>
       <c r="F686" t="n">
-        <v>0.01208718</v>
+        <v>12.08718</v>
       </c>
     </row>
     <row r="687">
@@ -14103,7 +14102,7 @@
         <v>5.73</v>
       </c>
       <c r="F687" t="n">
-        <v>0.01223928</v>
+        <v>12.23928</v>
       </c>
     </row>
     <row r="688">
@@ -14123,7 +14122,7 @@
         <v>5.88</v>
       </c>
       <c r="F688" t="n">
-        <v>0.01260672</v>
+        <v>12.60672</v>
       </c>
     </row>
     <row r="689">
@@ -14143,7 +14142,7 @@
         <v>6.015</v>
       </c>
       <c r="F689" t="n">
-        <v>0.01267962</v>
+        <v>12.67962</v>
       </c>
     </row>
     <row r="690">
@@ -14163,7 +14162,7 @@
         <v>6.075</v>
       </c>
       <c r="F690" t="n">
-        <v>0.0129519</v>
+        <v>12.9519</v>
       </c>
     </row>
     <row r="691">
@@ -14183,7 +14182,7 @@
         <v>6.015</v>
       </c>
       <c r="F691" t="n">
-        <v>0.01279992</v>
+        <v>12.79992</v>
       </c>
     </row>
     <row r="692">
@@ -14203,7 +14202,7 @@
         <v>5.925</v>
       </c>
       <c r="F692" t="n">
-        <v>0.0130587</v>
+        <v>13.0587</v>
       </c>
     </row>
     <row r="693">
@@ -14223,7 +14222,7 @@
         <v>5.76</v>
       </c>
       <c r="F693" t="n">
-        <v>0.01251072</v>
+        <v>12.51072</v>
       </c>
     </row>
     <row r="694">
@@ -14243,7 +14242,7 @@
         <v>5.745</v>
       </c>
       <c r="F694" t="n">
-        <v>0.01224834</v>
+        <v>12.24834</v>
       </c>
     </row>
     <row r="695">
@@ -14263,7 +14262,7 @@
         <v>5.895</v>
       </c>
       <c r="F695" t="n">
-        <v>0.01247382</v>
+        <v>12.47382</v>
       </c>
     </row>
     <row r="696">
@@ -14283,7 +14282,7 @@
         <v>6.359999999999999</v>
       </c>
       <c r="F696" t="n">
-        <v>0.01371216</v>
+        <v>13.71216</v>
       </c>
     </row>
     <row r="697">
@@ -14303,7 +14302,7 @@
         <v>6.975</v>
       </c>
       <c r="F697" t="n">
-        <v>0.0146754</v>
+        <v>14.6754</v>
       </c>
     </row>
     <row r="698">
@@ -14323,7 +14322,7 @@
         <v>7.965</v>
       </c>
       <c r="F698" t="n">
-        <v>0.01685394</v>
+        <v>16.85394</v>
       </c>
     </row>
     <row r="699">
@@ -14343,7 +14342,7 @@
         <v>8.025</v>
       </c>
       <c r="F699" t="n">
-        <v>0.0173019</v>
+        <v>17.3019</v>
       </c>
     </row>
     <row r="700">
@@ -14363,7 +14362,7 @@
         <v>7.635</v>
       </c>
       <c r="F700" t="n">
-        <v>0.01643052</v>
+        <v>16.43052</v>
       </c>
     </row>
     <row r="701">
@@ -14383,7 +14382,7 @@
         <v>7.109999999999999</v>
       </c>
       <c r="F701" t="n">
-        <v>0.015642</v>
+        <v>15.642</v>
       </c>
     </row>
     <row r="702">
@@ -14403,7 +14402,7 @@
         <v>6.524999999999999</v>
       </c>
       <c r="F702" t="n">
-        <v>0.0138852</v>
+        <v>13.8852</v>
       </c>
     </row>
     <row r="703">
@@ -14423,7 +14422,7 @@
         <v>6.404999999999999</v>
       </c>
       <c r="F703" t="n">
-        <v>0.01373232</v>
+        <v>13.73232</v>
       </c>
     </row>
     <row r="704">
@@ -14443,7 +14442,7 @@
         <v>6.045</v>
       </c>
       <c r="F704" t="n">
-        <v>0.01274286</v>
+        <v>12.74286</v>
       </c>
     </row>
     <row r="705">
@@ -14463,7 +14462,7 @@
         <v>5.805</v>
       </c>
       <c r="F705" t="n">
-        <v>0.01251558</v>
+        <v>12.51558</v>
       </c>
     </row>
     <row r="706">
@@ -14483,7 +14482,7 @@
         <v>5.595</v>
       </c>
       <c r="F706" t="n">
-        <v>0.01181664</v>
+        <v>11.81664</v>
       </c>
     </row>
     <row r="707">
@@ -14503,7 +14502,7 @@
         <v>5.385</v>
       </c>
       <c r="F707" t="n">
-        <v>0.01161006</v>
+        <v>11.61006</v>
       </c>
     </row>
     <row r="708">
@@ -14523,7 +14522,7 @@
         <v>5.055</v>
       </c>
       <c r="F708" t="n">
-        <v>0.01079748</v>
+        <v>10.79748</v>
       </c>
     </row>
     <row r="709">
@@ -14543,7 +14542,7 @@
         <v>4.995</v>
       </c>
       <c r="F709" t="n">
-        <v>0.01070928</v>
+        <v>10.70928</v>
       </c>
     </row>
     <row r="710">
@@ -14563,7 +14562,7 @@
         <v>5.01</v>
       </c>
       <c r="F710" t="n">
-        <v>0.01068132</v>
+        <v>10.68132</v>
       </c>
     </row>
     <row r="711">
@@ -14583,7 +14582,7 @@
         <v>5.115</v>
       </c>
       <c r="F711" t="n">
-        <v>0.01123254</v>
+        <v>11.23254</v>
       </c>
     </row>
     <row r="712">
@@ -14603,7 +14602,7 @@
         <v>5.895</v>
       </c>
       <c r="F712" t="n">
-        <v>0.01242666</v>
+        <v>12.42666</v>
       </c>
     </row>
     <row r="713">
@@ -14623,7 +14622,7 @@
         <v>6.524999999999999</v>
       </c>
       <c r="F713" t="n">
-        <v>0.0139374</v>
+        <v>13.9374</v>
       </c>
     </row>
     <row r="714">
@@ -14643,7 +14642,7 @@
         <v>6.585</v>
       </c>
       <c r="F714" t="n">
-        <v>0.01411824</v>
+        <v>14.11824</v>
       </c>
     </row>
     <row r="715">
@@ -14663,7 +14662,7 @@
         <v>6.63</v>
       </c>
       <c r="F715" t="n">
-        <v>0.01410864</v>
+        <v>14.10864</v>
       </c>
     </row>
     <row r="716">
@@ -14683,7 +14682,7 @@
         <v>6.645</v>
       </c>
       <c r="F716" t="n">
-        <v>0.01366212</v>
+        <v>13.66212</v>
       </c>
     </row>
     <row r="717">
@@ -14703,7 +14702,7 @@
         <v>6.6</v>
       </c>
       <c r="F717" t="n">
-        <v>0.01452</v>
+        <v>14.52</v>
       </c>
     </row>
     <row r="718">
@@ -14723,7 +14722,7 @@
         <v>6.585</v>
       </c>
       <c r="F718" t="n">
-        <v>0.01453968</v>
+        <v>14.53968</v>
       </c>
     </row>
     <row r="719">
@@ -14743,7 +14742,7 @@
         <v>6.555</v>
       </c>
       <c r="F719" t="n">
-        <v>0.01426368</v>
+        <v>14.26368</v>
       </c>
     </row>
     <row r="720">
@@ -14763,7 +14762,7 @@
         <v>6.45</v>
       </c>
       <c r="F720" t="n">
-        <v>0.0137514</v>
+        <v>13.7514</v>
       </c>
     </row>
     <row r="721">
@@ -14783,7 +14782,7 @@
         <v>6.24</v>
       </c>
       <c r="F721" t="n">
-        <v>0.01337856</v>
+        <v>13.37856</v>
       </c>
     </row>
     <row r="722">
@@ -14803,7 +14802,7 @@
         <v>5.715</v>
       </c>
       <c r="F722" t="n">
-        <v>0.01229868</v>
+        <v>12.29868</v>
       </c>
     </row>
     <row r="723">
@@ -14823,7 +14822,7 @@
         <v>4.755</v>
       </c>
       <c r="F723" t="n">
-        <v>0.01042296</v>
+        <v>10.42296</v>
       </c>
     </row>
     <row r="724">
@@ -14843,7 +14842,7 @@
         <v>4.32</v>
       </c>
       <c r="F724" t="n">
-        <v>0.009331200000000001</v>
+        <v>9.331200000000001</v>
       </c>
     </row>
     <row r="725">
@@ -14863,7 +14862,7 @@
         <v>3.96</v>
       </c>
       <c r="F725" t="n">
-        <v>0.008474400000000002</v>
+        <v>8.474400000000001</v>
       </c>
     </row>
     <row r="726">
@@ -14883,7 +14882,7 @@
         <v>4.05</v>
       </c>
       <c r="F726" t="n">
-        <v>0.008990999999999999</v>
+        <v>8.991</v>
       </c>
     </row>
     <row r="727">
@@ -14903,7 +14902,7 @@
         <v>4.155</v>
       </c>
       <c r="F727" t="n">
-        <v>0.00902466</v>
+        <v>9.024660000000001</v>
       </c>
     </row>
     <row r="728">
@@ -14923,7 +14922,7 @@
         <v>4.32</v>
       </c>
       <c r="F728" t="n">
-        <v>0.009244800000000001</v>
+        <v>9.244800000000001</v>
       </c>
     </row>
     <row r="729">
@@ -14943,7 +14942,7 @@
         <v>4.455</v>
       </c>
       <c r="F729" t="n">
-        <v>0.009444600000000001</v>
+        <v>9.444600000000001</v>
       </c>
     </row>
     <row r="730">
@@ -14963,7 +14962,7 @@
         <v>4.77</v>
       </c>
       <c r="F730" t="n">
-        <v>0.010017</v>
+        <v>10.017</v>
       </c>
     </row>
     <row r="731">
@@ -14983,7 +14982,7 @@
         <v>4.995</v>
       </c>
       <c r="F731" t="n">
-        <v>0.01054944</v>
+        <v>10.54944</v>
       </c>
     </row>
     <row r="732">
@@ -15003,7 +15002,7 @@
         <v>5.055</v>
       </c>
       <c r="F732" t="n">
-        <v>0.01069638</v>
+        <v>10.69638</v>
       </c>
     </row>
     <row r="733">
@@ -15023,7 +15022,7 @@
         <v>4.905</v>
       </c>
       <c r="F733" t="n">
-        <v>0.01073214</v>
+        <v>10.73214</v>
       </c>
     </row>
     <row r="734">
@@ -15043,7 +15042,7 @@
         <v>4.815</v>
       </c>
       <c r="F734" t="n">
-        <v>0.01070856</v>
+        <v>10.70856</v>
       </c>
     </row>
     <row r="735">
@@ -15063,7 +15062,7 @@
         <v>4.59</v>
       </c>
       <c r="F735" t="n">
-        <v>0.0097308</v>
+        <v>9.7308</v>
       </c>
     </row>
     <row r="736">
@@ -15083,7 +15082,7 @@
         <v>4.23</v>
       </c>
       <c r="F736" t="n">
-        <v>0.008950680000000001</v>
+        <v>8.95068</v>
       </c>
     </row>
     <row r="737">
@@ -15103,7 +15102,7 @@
         <v>3.855</v>
       </c>
       <c r="F737" t="n">
-        <v>0.008188020000000001</v>
+        <v>8.18802</v>
       </c>
     </row>
     <row r="738">
@@ -15123,7 +15122,7 @@
         <v>3.795</v>
       </c>
       <c r="F738" t="n">
-        <v>0.008106120000000001</v>
+        <v>8.106120000000001</v>
       </c>
     </row>
     <row r="739">
@@ -15143,7 +15142,7 @@
         <v>3.78</v>
       </c>
       <c r="F739" t="n">
-        <v>0.00796824</v>
+        <v>7.96824</v>
       </c>
     </row>
     <row r="740">
@@ -15163,7 +15162,7 @@
         <v>3.81</v>
       </c>
       <c r="F740" t="n">
-        <v>0.008199120000000001</v>
+        <v>8.199120000000001</v>
       </c>
     </row>
     <row r="741">
@@ -15183,7 +15182,7 @@
         <v>3.825</v>
       </c>
       <c r="F741" t="n">
-        <v>0.008369099999999999</v>
+        <v>8.3691</v>
       </c>
     </row>
     <row r="742">
@@ -15203,7 +15202,7 @@
         <v>3.825</v>
       </c>
       <c r="F742" t="n">
-        <v>0.008644500000000001</v>
+        <v>8.644500000000001</v>
       </c>
     </row>
     <row r="743">
@@ -15223,7 +15222,7 @@
         <v>3.375</v>
       </c>
       <c r="F743" t="n">
-        <v>0.007290000000000001</v>
+        <v>7.290000000000001</v>
       </c>
     </row>
     <row r="744">
@@ -15243,7 +15242,7 @@
         <v>3.135</v>
       </c>
       <c r="F744" t="n">
-        <v>0.006746520000000001</v>
+        <v>6.74652</v>
       </c>
     </row>
     <row r="745">
@@ -15263,7 +15262,7 @@
         <v>3.075</v>
       </c>
       <c r="F745" t="n">
-        <v>0.0067773</v>
+        <v>6.7773</v>
       </c>
     </row>
     <row r="746">
@@ -15283,7 +15282,7 @@
         <v>2.91</v>
       </c>
       <c r="F746" t="n">
-        <v>0.00635544</v>
+        <v>6.355440000000001</v>
       </c>
     </row>
     <row r="747">
@@ -15303,7 +15302,7 @@
         <v>2.79</v>
       </c>
       <c r="F747" t="n">
-        <v>0.00622728</v>
+        <v>6.22728</v>
       </c>
     </row>
     <row r="748">
@@ -15323,7 +15322,7 @@
         <v>2.655</v>
       </c>
       <c r="F748" t="n">
-        <v>0.005862239999999999</v>
+        <v>5.862239999999999</v>
       </c>
     </row>
     <row r="749">
@@ -15343,7 +15342,7 @@
         <v>2.235</v>
       </c>
       <c r="F749" t="n">
-        <v>0.00488124</v>
+        <v>4.88124</v>
       </c>
     </row>
     <row r="750">
@@ -15363,7 +15362,7 @@
         <v>2.145</v>
       </c>
       <c r="F750" t="n">
-        <v>0.0045045</v>
+        <v>4.5045</v>
       </c>
     </row>
     <row r="751">
@@ -15383,7 +15382,7 @@
         <v>2.04</v>
       </c>
       <c r="F751" t="n">
-        <v>0.00457776</v>
+        <v>4.57776</v>
       </c>
     </row>
     <row r="752">
@@ -15403,7 +15402,7 @@
         <v>1.98</v>
       </c>
       <c r="F752" t="n">
-        <v>0.0044748</v>
+        <v>4.4748</v>
       </c>
     </row>
     <row r="753">
@@ -15423,7 +15422,7 @@
         <v>1.77</v>
       </c>
       <c r="F753" t="n">
-        <v>0.003957720000000001</v>
+        <v>3.957720000000001</v>
       </c>
     </row>
     <row r="754">
@@ -15443,7 +15442,7 @@
         <v>1.53</v>
       </c>
       <c r="F754" t="n">
-        <v>0.00332316</v>
+        <v>3.32316</v>
       </c>
     </row>
     <row r="755">
@@ -15463,7 +15462,7 @@
         <v>1.23</v>
       </c>
       <c r="F755" t="n">
-        <v>0.00274044</v>
+        <v>2.74044</v>
       </c>
     </row>
     <row r="756">
@@ -15483,7 +15482,7 @@
         <v>1.02</v>
       </c>
       <c r="F756" t="n">
-        <v>0.00229296</v>
+        <v>2.29296</v>
       </c>
     </row>
     <row r="757">
@@ -15503,7 +15502,7 @@
         <v>1.005</v>
       </c>
       <c r="F757" t="n">
-        <v>0.002211</v>
+        <v>2.211</v>
       </c>
     </row>
     <row r="758">
@@ -15523,7 +15522,7 @@
         <v>0.9149999999999999</v>
       </c>
       <c r="F758" t="n">
-        <v>0.00204228</v>
+        <v>2.04228</v>
       </c>
     </row>
     <row r="759">
@@ -15543,7 +15542,7 @@
         <v>0.855</v>
       </c>
       <c r="F759" t="n">
-        <v>0.00194256</v>
+        <v>1.94256</v>
       </c>
     </row>
     <row r="760">
@@ -15563,7 +15562,7 @@
         <v>0.8099999999999999</v>
       </c>
       <c r="F760" t="n">
-        <v>0.00180144</v>
+        <v>1.80144</v>
       </c>
     </row>
     <row r="761">
@@ -15583,7 +15582,7 @@
         <v>0.705</v>
       </c>
       <c r="F761" t="n">
-        <v>0.00155946</v>
+        <v>1.55946</v>
       </c>
     </row>
     <row r="762">
@@ -15603,7 +15602,7 @@
         <v>0.585</v>
       </c>
       <c r="F762" t="n">
-        <v>0.00130572</v>
+        <v>1.30572</v>
       </c>
     </row>
     <row r="763">
@@ -15623,7 +15622,7 @@
         <v>0.54</v>
       </c>
       <c r="F763" t="n">
-        <v>0.00120744</v>
+        <v>1.20744</v>
       </c>
     </row>
     <row r="764">
@@ -15643,7 +15642,7 @@
         <v>0.48</v>
       </c>
       <c r="F764" t="n">
-        <v>0.00105984</v>
+        <v>1.05984</v>
       </c>
     </row>
     <row r="765">
@@ -15663,7 +15662,7 @@
         <v>0.42</v>
       </c>
       <c r="F765" t="n">
-        <v>0.0009441600000000001</v>
+        <v>0.9441600000000001</v>
       </c>
     </row>
     <row r="766">
@@ -15683,7 +15682,7 @@
         <v>0.42</v>
       </c>
       <c r="F766" t="n">
-        <v>0.00093072</v>
+        <v>0.93072</v>
       </c>
     </row>
     <row r="767">
@@ -15703,7 +15702,7 @@
         <v>0.285</v>
       </c>
       <c r="F767" t="n">
-        <v>0.00063384</v>
+        <v>0.63384</v>
       </c>
     </row>
     <row r="768">
@@ -15723,7 +15722,7 @@
         <v>0.24</v>
       </c>
       <c r="F768" t="n">
-        <v>0.00052992</v>
+        <v>0.5299200000000001</v>
       </c>
     </row>
     <row r="769">
@@ -15743,7 +15742,7 @@
         <v>0.195</v>
       </c>
       <c r="F769" t="n">
-        <v>0.0004492800000000001</v>
+        <v>0.4492800000000001</v>
       </c>
     </row>
     <row r="770">
@@ -15763,7 +15762,7 @@
         <v>0.15</v>
       </c>
       <c r="F770" t="n">
-        <v>0.0003462</v>
+        <v>0.3462</v>
       </c>
     </row>
     <row r="771">
@@ -15783,7 +15782,7 @@
         <v>0.12</v>
       </c>
       <c r="F771" t="n">
-        <v>0.00027984</v>
+        <v>0.27984</v>
       </c>
     </row>
     <row r="772">
@@ -15803,7 +15802,7 @@
         <v>0.12</v>
       </c>
       <c r="F772" t="n">
-        <v>0.000276</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="773">
@@ -15823,7 +15822,7 @@
         <v>0.12</v>
       </c>
       <c r="F773" t="n">
-        <v>0.00027888</v>
+        <v>0.27888</v>
       </c>
     </row>
     <row r="774">
@@ -15843,7 +15842,7 @@
         <v>0.105</v>
       </c>
       <c r="F774" t="n">
-        <v>0.00024444</v>
+        <v>0.24444</v>
       </c>
     </row>
     <row r="775">
@@ -15863,7 +15862,7 @@
         <v>0.075</v>
       </c>
       <c r="F775" t="n">
-        <v>0.0001707</v>
+        <v>0.1707</v>
       </c>
     </row>
     <row r="776">
@@ -15883,7 +15882,7 @@
         <v>0.075</v>
       </c>
       <c r="F776" t="n">
-        <v>0.0001731</v>
+        <v>0.1731</v>
       </c>
     </row>
     <row r="777">
@@ -15903,7 +15902,7 @@
         <v>0.045</v>
       </c>
       <c r="F777" t="n">
-        <v>0.00010422</v>
+        <v>0.10422</v>
       </c>
     </row>
     <row r="778">
@@ -15923,7 +15922,7 @@
         <v>0.015</v>
       </c>
       <c r="F778" t="n">
-        <v>3.636e-05</v>
+        <v>0.03636</v>
       </c>
     </row>
     <row r="779">
@@ -17248,5 +17247,6 @@
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>